--- a/result.xlsx
+++ b/result.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K713"/>
+  <dimension ref="A1:K709"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
@@ -23507,7 +23507,7 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>3000009096</v>
+        <v>3000009095</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -23531,7 +23531,7 @@
       </c>
       <c r="H486" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="I486" t="inlineStr"/>
@@ -23552,7 +23552,7 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>3000009096</v>
+        <v>3000009095</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -23576,7 +23576,7 @@
       </c>
       <c r="H487" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="I487" t="inlineStr"/>
@@ -23597,7 +23597,7 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>3000009096</v>
+        <v>3000009095</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
       </c>
       <c r="H488" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="I488" t="inlineStr"/>
@@ -23642,7 +23642,7 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>3000009096</v>
+        <v>3000009095</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
       </c>
       <c r="H489" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="I489" t="inlineStr"/>
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="C490" t="n">
-        <v>3000009096</v>
+        <v>3000009095</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -23711,7 +23711,7 @@
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="I490" t="inlineStr"/>
@@ -23732,7 +23732,7 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>3000009096</v>
+        <v>3000009095</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -23756,7 +23756,7 @@
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="I491" t="inlineStr"/>
@@ -23777,7 +23777,7 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>3000009096</v>
+        <v>3000009095</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -23801,7 +23801,7 @@
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="I492" t="inlineStr"/>
@@ -23822,7 +23822,7 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>3000009096</v>
+        <v>3000009095</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -23846,7 +23846,7 @@
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="I493" t="inlineStr"/>
@@ -23867,7 +23867,7 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>3000009096</v>
+        <v>3000009095</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -23891,7 +23891,7 @@
       </c>
       <c r="H494" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="I494" t="inlineStr"/>
@@ -23912,7 +23912,7 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>3000009096</v>
+        <v>3000009095</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="I495" t="inlineStr"/>
@@ -23957,7 +23957,7 @@
         </is>
       </c>
       <c r="C496" t="n">
-        <v>3000009096</v>
+        <v>3000009095</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="I496" t="inlineStr"/>
@@ -24002,7 +24002,7 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>3000009096</v>
+        <v>3000009095</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -24026,7 +24026,7 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="I497" t="inlineStr"/>
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>3000009096</v>
+        <v>3000009095</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -24071,7 +24071,7 @@
       </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="I498" t="inlineStr"/>
@@ -24092,7 +24092,7 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>3000009096</v>
+        <v>3000009095</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="I499" t="inlineStr"/>
@@ -24137,7 +24137,7 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>3000009096</v>
+        <v>3000009095</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -24161,7 +24161,7 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="I500" t="inlineStr"/>
@@ -24182,7 +24182,7 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>3000009096</v>
+        <v>3000009095</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="I501" t="inlineStr"/>
@@ -24227,7 +24227,7 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>3000009096</v>
+        <v>3000009095</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -24251,7 +24251,7 @@
       </c>
       <c r="H502" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="I502" t="inlineStr"/>
@@ -24272,7 +24272,7 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>3000009096</v>
+        <v>3000009095</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -24296,7 +24296,7 @@
       </c>
       <c r="H503" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="I503" t="inlineStr"/>
@@ -24317,7 +24317,7 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>3000009096</v>
+        <v>3000009095</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -24341,7 +24341,7 @@
       </c>
       <c r="H504" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="I504" t="inlineStr"/>
@@ -24362,7 +24362,7 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>3000009096</v>
+        <v>3000009095</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
       </c>
       <c r="H505" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="I505" t="inlineStr"/>
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>3000009096</v>
+        <v>3000009095</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -24431,7 +24431,7 @@
       </c>
       <c r="H506" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="I506" t="inlineStr"/>
@@ -24452,7 +24452,7 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>3000009096</v>
+        <v>3000009095</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -24476,7 +24476,7 @@
       </c>
       <c r="H507" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="I507" t="inlineStr"/>
@@ -24497,7 +24497,7 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>3000009096</v>
+        <v>3000009095</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -24521,7 +24521,7 @@
       </c>
       <c r="H508" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="I508" t="inlineStr"/>
@@ -24542,7 +24542,7 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>3000009096</v>
+        <v>3000009095</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -24566,7 +24566,7 @@
       </c>
       <c r="H509" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="I509" t="inlineStr"/>
@@ -24587,7 +24587,7 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>3000009096</v>
+        <v>3000009095</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -24611,7 +24611,7 @@
       </c>
       <c r="H510" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="I510" t="inlineStr"/>
@@ -24632,7 +24632,7 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>3000009096</v>
+        <v>3000009095</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -24656,7 +24656,7 @@
       </c>
       <c r="H511" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="I511" t="inlineStr"/>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>3000009096</v>
+        <v>3000009095</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -24701,7 +24701,7 @@
       </c>
       <c r="H512" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="I512" t="inlineStr"/>
@@ -24722,7 +24722,7 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>3000009096</v>
+        <v>3000009095</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -24746,7 +24746,7 @@
       </c>
       <c r="H513" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="I513" t="inlineStr"/>
@@ -24767,7 +24767,7 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>3000009096</v>
+        <v>3000009095</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -24791,7 +24791,7 @@
       </c>
       <c r="H514" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="I514" t="inlineStr"/>
@@ -24812,7 +24812,7 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>3000009096</v>
+        <v>3000009095</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -24836,7 +24836,7 @@
       </c>
       <c r="H515" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="I515" t="inlineStr"/>
@@ -24857,7 +24857,7 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>3000009096</v>
+        <v>3000009095</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -24881,7 +24881,7 @@
       </c>
       <c r="H516" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="I516" t="inlineStr"/>
@@ -24902,7 +24902,7 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>3000009096</v>
+        <v>3000009095</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -24926,7 +24926,7 @@
       </c>
       <c r="H517" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="I517" t="inlineStr"/>
@@ -24947,7 +24947,7 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>3000009096</v>
+        <v>3000009095</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -24971,7 +24971,7 @@
       </c>
       <c r="H518" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="I518" t="inlineStr"/>
@@ -24992,7 +24992,7 @@
         </is>
       </c>
       <c r="C519" t="n">
-        <v>3000009096</v>
+        <v>3000009095</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -25016,7 +25016,7 @@
       </c>
       <c r="H519" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="I519" t="inlineStr"/>
@@ -25037,7 +25037,7 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>3000009096</v>
+        <v>3000009095</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -25061,7 +25061,7 @@
       </c>
       <c r="H520" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="I520" t="inlineStr"/>
@@ -25082,7 +25082,7 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>3000009096</v>
+        <v>3000009095</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
       </c>
       <c r="H521" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="I521" t="inlineStr"/>
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="C522" t="n">
-        <v>3000009096</v>
+        <v>3000009095</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
       </c>
       <c r="H522" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="I522" t="inlineStr"/>
@@ -25172,7 +25172,7 @@
         </is>
       </c>
       <c r="C523" t="n">
-        <v>3000009096</v>
+        <v>3000009095</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -25196,7 +25196,7 @@
       </c>
       <c r="H523" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="I523" t="inlineStr"/>
@@ -25217,7 +25217,7 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>3000009096</v>
+        <v>3000009095</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -25241,7 +25241,7 @@
       </c>
       <c r="H524" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="I524" t="inlineStr"/>
@@ -25262,7 +25262,7 @@
         </is>
       </c>
       <c r="C525" t="n">
-        <v>3000009096</v>
+        <v>3000009095</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -25286,7 +25286,7 @@
       </c>
       <c r="H525" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="I525" t="inlineStr"/>
@@ -25307,7 +25307,7 @@
         </is>
       </c>
       <c r="C526" t="n">
-        <v>3000009096</v>
+        <v>3000009095</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -25331,7 +25331,7 @@
       </c>
       <c r="H526" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="I526" t="inlineStr"/>
@@ -25352,7 +25352,7 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>3000009096</v>
+        <v>3000009095</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -25376,7 +25376,7 @@
       </c>
       <c r="H527" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="I527" t="inlineStr"/>
@@ -25397,7 +25397,7 @@
         </is>
       </c>
       <c r="C528" t="n">
-        <v>3000009096</v>
+        <v>3000009095</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -25421,7 +25421,7 @@
       </c>
       <c r="H528" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="I528" t="inlineStr"/>
@@ -25442,7 +25442,7 @@
         </is>
       </c>
       <c r="C529" t="n">
-        <v>3000009096</v>
+        <v>3000009095</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -25466,7 +25466,7 @@
       </c>
       <c r="H529" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="I529" t="inlineStr"/>
@@ -25487,7 +25487,7 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>3000009096</v>
+        <v>3000009095</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -25511,7 +25511,7 @@
       </c>
       <c r="H530" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="I530" t="inlineStr"/>
@@ -25532,7 +25532,7 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>3000009096</v>
+        <v>3000009095</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
       </c>
       <c r="H531" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="I531" t="inlineStr"/>
@@ -25577,7 +25577,7 @@
         </is>
       </c>
       <c r="C532" t="n">
-        <v>3000009096</v>
+        <v>3000009095</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -25601,7 +25601,7 @@
       </c>
       <c r="H532" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="I532" t="inlineStr"/>
@@ -25622,7 +25622,7 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>3000009096</v>
+        <v>3000009095</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -25646,7 +25646,7 @@
       </c>
       <c r="H533" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="I533" t="inlineStr"/>
@@ -25667,7 +25667,7 @@
         </is>
       </c>
       <c r="C534" t="n">
-        <v>3000009096</v>
+        <v>3000009095</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -25691,7 +25691,7 @@
       </c>
       <c r="H534" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="I534" t="inlineStr"/>
@@ -25712,7 +25712,7 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>3000009096</v>
+        <v>3000009095</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -25736,7 +25736,7 @@
       </c>
       <c r="H535" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="I535" t="inlineStr"/>
@@ -25757,7 +25757,7 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>3000009096</v>
+        <v>3000009095</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -25781,7 +25781,7 @@
       </c>
       <c r="H536" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="I536" t="inlineStr"/>
@@ -25802,7 +25802,7 @@
         </is>
       </c>
       <c r="C537" t="n">
-        <v>3000009096</v>
+        <v>3000009095</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
       </c>
       <c r="H537" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="I537" t="inlineStr"/>
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="C538" t="n">
-        <v>3000009096</v>
+        <v>3000009095</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -25871,7 +25871,7 @@
       </c>
       <c r="H538" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="I538" t="inlineStr"/>
@@ -25892,7 +25892,7 @@
         </is>
       </c>
       <c r="C539" t="n">
-        <v>3000009096</v>
+        <v>3000009095</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -25916,7 +25916,7 @@
       </c>
       <c r="H539" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="I539" t="inlineStr"/>
@@ -25937,7 +25937,7 @@
         </is>
       </c>
       <c r="C540" t="n">
-        <v>3000009096</v>
+        <v>3000009095</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -25961,7 +25961,7 @@
       </c>
       <c r="H540" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="I540" t="inlineStr"/>
@@ -25982,7 +25982,7 @@
         </is>
       </c>
       <c r="C541" t="n">
-        <v>3000009096</v>
+        <v>3000009095</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -26006,7 +26006,7 @@
       </c>
       <c r="H541" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="I541" t="inlineStr"/>
@@ -26027,7 +26027,7 @@
         </is>
       </c>
       <c r="C542" t="n">
-        <v>3000009096</v>
+        <v>3000009095</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -26051,7 +26051,7 @@
       </c>
       <c r="H542" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="I542" t="inlineStr"/>
@@ -26072,7 +26072,7 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>3000009096</v>
+        <v>3000009095</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -26096,7 +26096,7 @@
       </c>
       <c r="H543" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="I543" t="inlineStr"/>
@@ -26117,7 +26117,7 @@
         </is>
       </c>
       <c r="C544" t="n">
-        <v>3000009096</v>
+        <v>3000009095</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -26141,7 +26141,7 @@
       </c>
       <c r="H544" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="I544" t="inlineStr"/>
@@ -26162,7 +26162,7 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>3000009096</v>
+        <v>3000009095</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -26186,7 +26186,7 @@
       </c>
       <c r="H545" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="I545" t="inlineStr"/>
@@ -26207,7 +26207,7 @@
         </is>
       </c>
       <c r="C546" t="n">
-        <v>3000009100</v>
+        <v>3000009102</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -26226,12 +26226,12 @@
       </c>
       <c r="G546" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H546" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I546" t="inlineStr"/>
@@ -26252,7 +26252,7 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>3000009100</v>
+        <v>3000009102</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -26271,12 +26271,12 @@
       </c>
       <c r="G547" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H547" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I547" t="inlineStr"/>
@@ -26297,7 +26297,7 @@
         </is>
       </c>
       <c r="C548" t="n">
-        <v>3000009100</v>
+        <v>3000009102</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -26316,12 +26316,12 @@
       </c>
       <c r="G548" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H548" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I548" t="inlineStr"/>
@@ -26342,7 +26342,7 @@
         </is>
       </c>
       <c r="C549" t="n">
-        <v>3000009100</v>
+        <v>3000009102</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -26361,12 +26361,12 @@
       </c>
       <c r="G549" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H549" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I549" t="inlineStr"/>
@@ -26387,7 +26387,7 @@
         </is>
       </c>
       <c r="C550" t="n">
-        <v>3000009100</v>
+        <v>3000009102</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -26406,12 +26406,12 @@
       </c>
       <c r="G550" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H550" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I550" t="inlineStr"/>
@@ -26432,7 +26432,7 @@
         </is>
       </c>
       <c r="C551" t="n">
-        <v>3000009100</v>
+        <v>3000009102</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -26451,12 +26451,12 @@
       </c>
       <c r="G551" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H551" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I551" t="inlineStr"/>
@@ -26477,7 +26477,7 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>3000009100</v>
+        <v>3000009102</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -26496,12 +26496,12 @@
       </c>
       <c r="G552" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H552" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I552" t="inlineStr"/>
@@ -26522,7 +26522,7 @@
         </is>
       </c>
       <c r="C553" t="n">
-        <v>3000009100</v>
+        <v>3000009102</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -26541,12 +26541,12 @@
       </c>
       <c r="G553" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H553" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I553" t="inlineStr"/>
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="C554" t="n">
-        <v>3000009100</v>
+        <v>3000009102</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -26586,12 +26586,12 @@
       </c>
       <c r="G554" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H554" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I554" t="inlineStr"/>
@@ -26612,7 +26612,7 @@
         </is>
       </c>
       <c r="C555" t="n">
-        <v>3000009100</v>
+        <v>3000009102</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -26631,12 +26631,12 @@
       </c>
       <c r="G555" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H555" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I555" t="inlineStr"/>
@@ -26657,7 +26657,7 @@
         </is>
       </c>
       <c r="C556" t="n">
-        <v>3000009100</v>
+        <v>3000009102</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -26676,12 +26676,12 @@
       </c>
       <c r="G556" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H556" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I556" t="inlineStr"/>
@@ -26702,7 +26702,7 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>3000009100</v>
+        <v>3000009102</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -26721,12 +26721,12 @@
       </c>
       <c r="G557" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H557" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I557" t="inlineStr"/>
@@ -26747,7 +26747,7 @@
         </is>
       </c>
       <c r="C558" t="n">
-        <v>3000009100</v>
+        <v>3000009102</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -26766,12 +26766,12 @@
       </c>
       <c r="G558" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H558" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I558" t="inlineStr"/>
@@ -26792,7 +26792,7 @@
         </is>
       </c>
       <c r="C559" t="n">
-        <v>3000009100</v>
+        <v>3000009102</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -26811,12 +26811,12 @@
       </c>
       <c r="G559" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H559" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I559" t="inlineStr"/>
@@ -26837,7 +26837,7 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>3000009100</v>
+        <v>3000009102</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -26856,12 +26856,12 @@
       </c>
       <c r="G560" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H560" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I560" t="inlineStr"/>
@@ -26882,7 +26882,7 @@
         </is>
       </c>
       <c r="C561" t="n">
-        <v>3000009100</v>
+        <v>3000009102</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -26901,12 +26901,12 @@
       </c>
       <c r="G561" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H561" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I561" t="inlineStr"/>
@@ -26927,7 +26927,7 @@
         </is>
       </c>
       <c r="C562" t="n">
-        <v>3000009100</v>
+        <v>3000009102</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -26946,12 +26946,12 @@
       </c>
       <c r="G562" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H562" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I562" t="inlineStr"/>
@@ -26972,7 +26972,7 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>3000009100</v>
+        <v>3000009102</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -26991,12 +26991,12 @@
       </c>
       <c r="G563" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H563" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I563" t="inlineStr"/>
@@ -27017,7 +27017,7 @@
         </is>
       </c>
       <c r="C564" t="n">
-        <v>3000009100</v>
+        <v>3000009102</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -27036,12 +27036,12 @@
       </c>
       <c r="G564" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H564" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I564" t="inlineStr"/>
@@ -27062,7 +27062,7 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>3000009100</v>
+        <v>3000009102</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -27081,12 +27081,12 @@
       </c>
       <c r="G565" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H565" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I565" t="inlineStr"/>
@@ -27107,7 +27107,7 @@
         </is>
       </c>
       <c r="C566" t="n">
-        <v>3000009100</v>
+        <v>3000009102</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -27126,12 +27126,12 @@
       </c>
       <c r="G566" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H566" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I566" t="inlineStr"/>
@@ -27152,7 +27152,7 @@
         </is>
       </c>
       <c r="C567" t="n">
-        <v>3000009100</v>
+        <v>3000009102</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -27171,12 +27171,12 @@
       </c>
       <c r="G567" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H567" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I567" t="inlineStr"/>
@@ -27197,7 +27197,7 @@
         </is>
       </c>
       <c r="C568" t="n">
-        <v>3000009100</v>
+        <v>3000009102</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -27216,12 +27216,12 @@
       </c>
       <c r="G568" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H568" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I568" t="inlineStr"/>
@@ -27242,7 +27242,7 @@
         </is>
       </c>
       <c r="C569" t="n">
-        <v>3000009100</v>
+        <v>3000009102</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -27261,12 +27261,12 @@
       </c>
       <c r="G569" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H569" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I569" t="inlineStr"/>
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="C570" t="n">
-        <v>3000009100</v>
+        <v>3000009102</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -27306,12 +27306,12 @@
       </c>
       <c r="G570" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H570" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I570" t="inlineStr"/>
@@ -27332,7 +27332,7 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>3000009100</v>
+        <v>3000009102</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -27351,12 +27351,12 @@
       </c>
       <c r="G571" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H571" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I571" t="inlineStr"/>
@@ -27377,7 +27377,7 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>3000009100</v>
+        <v>3000009102</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -27396,12 +27396,12 @@
       </c>
       <c r="G572" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H572" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I572" t="inlineStr"/>
@@ -27422,7 +27422,7 @@
         </is>
       </c>
       <c r="C573" t="n">
-        <v>3000009100</v>
+        <v>3000009102</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -27441,12 +27441,12 @@
       </c>
       <c r="G573" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H573" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I573" t="inlineStr"/>
@@ -27467,7 +27467,7 @@
         </is>
       </c>
       <c r="C574" t="n">
-        <v>3000009100</v>
+        <v>3000009102</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -27486,12 +27486,12 @@
       </c>
       <c r="G574" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H574" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I574" t="inlineStr"/>
@@ -27512,7 +27512,7 @@
         </is>
       </c>
       <c r="C575" t="n">
-        <v>3000009100</v>
+        <v>3000009102</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -27531,12 +27531,12 @@
       </c>
       <c r="G575" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H575" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I575" t="inlineStr"/>
@@ -27557,7 +27557,7 @@
         </is>
       </c>
       <c r="C576" t="n">
-        <v>3000009100</v>
+        <v>3000009102</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -27576,12 +27576,12 @@
       </c>
       <c r="G576" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H576" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I576" t="inlineStr"/>
@@ -27602,7 +27602,7 @@
         </is>
       </c>
       <c r="C577" t="n">
-        <v>3000009100</v>
+        <v>3000009102</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -27621,12 +27621,12 @@
       </c>
       <c r="G577" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H577" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I577" t="inlineStr"/>
@@ -27647,7 +27647,7 @@
         </is>
       </c>
       <c r="C578" t="n">
-        <v>3000009100</v>
+        <v>3000009102</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -27666,12 +27666,12 @@
       </c>
       <c r="G578" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H578" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I578" t="inlineStr"/>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="C579" t="n">
-        <v>3000009100</v>
+        <v>3000009102</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -27711,12 +27711,12 @@
       </c>
       <c r="G579" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H579" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I579" t="inlineStr"/>
@@ -27737,7 +27737,7 @@
         </is>
       </c>
       <c r="C580" t="n">
-        <v>3000009100</v>
+        <v>3000009102</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -27756,12 +27756,12 @@
       </c>
       <c r="G580" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H580" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I580" t="inlineStr"/>
@@ -27782,7 +27782,7 @@
         </is>
       </c>
       <c r="C581" t="n">
-        <v>3000009100</v>
+        <v>3000009102</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -27801,12 +27801,12 @@
       </c>
       <c r="G581" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H581" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I581" t="inlineStr"/>
@@ -27827,7 +27827,7 @@
         </is>
       </c>
       <c r="C582" t="n">
-        <v>3000009100</v>
+        <v>3000009102</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -27846,12 +27846,12 @@
       </c>
       <c r="G582" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H582" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I582" t="inlineStr"/>
@@ -27872,7 +27872,7 @@
         </is>
       </c>
       <c r="C583" t="n">
-        <v>3000009100</v>
+        <v>3000009102</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -27891,12 +27891,12 @@
       </c>
       <c r="G583" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H583" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I583" t="inlineStr"/>
@@ -27917,7 +27917,7 @@
         </is>
       </c>
       <c r="C584" t="n">
-        <v>3000009100</v>
+        <v>3000009102</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -27936,12 +27936,12 @@
       </c>
       <c r="G584" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H584" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I584" t="inlineStr"/>
@@ -27962,7 +27962,7 @@
         </is>
       </c>
       <c r="C585" t="n">
-        <v>3000009100</v>
+        <v>3000009102</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -27981,12 +27981,12 @@
       </c>
       <c r="G585" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H585" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I585" t="inlineStr"/>
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="C586" t="n">
-        <v>3000009100</v>
+        <v>3000009102</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -28026,12 +28026,12 @@
       </c>
       <c r="G586" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H586" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I586" t="inlineStr"/>
@@ -28052,7 +28052,7 @@
         </is>
       </c>
       <c r="C587" t="n">
-        <v>3000009100</v>
+        <v>3000009102</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -28071,12 +28071,12 @@
       </c>
       <c r="G587" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H587" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I587" t="inlineStr"/>
@@ -28097,7 +28097,7 @@
         </is>
       </c>
       <c r="C588" t="n">
-        <v>3000009100</v>
+        <v>3000009102</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -28116,12 +28116,12 @@
       </c>
       <c r="G588" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H588" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I588" t="inlineStr"/>
@@ -28142,7 +28142,7 @@
         </is>
       </c>
       <c r="C589" t="n">
-        <v>3000009100</v>
+        <v>3000009102</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -28161,12 +28161,12 @@
       </c>
       <c r="G589" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H589" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I589" t="inlineStr"/>
@@ -28187,7 +28187,7 @@
         </is>
       </c>
       <c r="C590" t="n">
-        <v>3000009100</v>
+        <v>3000009102</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -28206,12 +28206,12 @@
       </c>
       <c r="G590" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H590" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I590" t="inlineStr"/>
@@ -28232,7 +28232,7 @@
         </is>
       </c>
       <c r="C591" t="n">
-        <v>3000009100</v>
+        <v>3000009102</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -28251,12 +28251,12 @@
       </c>
       <c r="G591" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H591" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I591" t="inlineStr"/>
@@ -28277,7 +28277,7 @@
         </is>
       </c>
       <c r="C592" t="n">
-        <v>3000009100</v>
+        <v>3000009102</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -28296,12 +28296,12 @@
       </c>
       <c r="G592" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H592" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I592" t="inlineStr"/>
@@ -28322,7 +28322,7 @@
         </is>
       </c>
       <c r="C593" t="n">
-        <v>3000009100</v>
+        <v>3000009102</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -28341,12 +28341,12 @@
       </c>
       <c r="G593" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H593" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I593" t="inlineStr"/>
@@ -28367,7 +28367,7 @@
         </is>
       </c>
       <c r="C594" t="n">
-        <v>3000009100</v>
+        <v>3000009102</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -28386,12 +28386,12 @@
       </c>
       <c r="G594" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H594" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I594" t="inlineStr"/>
@@ -28412,7 +28412,7 @@
         </is>
       </c>
       <c r="C595" t="n">
-        <v>3000009100</v>
+        <v>3000009102</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -28431,12 +28431,12 @@
       </c>
       <c r="G595" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H595" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I595" t="inlineStr"/>
@@ -28457,7 +28457,7 @@
         </is>
       </c>
       <c r="C596" t="n">
-        <v>3000009100</v>
+        <v>3000009102</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -28476,12 +28476,12 @@
       </c>
       <c r="G596" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H596" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I596" t="inlineStr"/>
@@ -28502,7 +28502,7 @@
         </is>
       </c>
       <c r="C597" t="n">
-        <v>3000009100</v>
+        <v>3000009102</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -28521,12 +28521,12 @@
       </c>
       <c r="G597" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H597" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I597" t="inlineStr"/>
@@ -28547,7 +28547,7 @@
         </is>
       </c>
       <c r="C598" t="n">
-        <v>3000009100</v>
+        <v>3000009102</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -28566,12 +28566,12 @@
       </c>
       <c r="G598" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H598" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I598" t="inlineStr"/>
@@ -28592,7 +28592,7 @@
         </is>
       </c>
       <c r="C599" t="n">
-        <v>3000009100</v>
+        <v>3000009102</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -28611,12 +28611,12 @@
       </c>
       <c r="G599" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H599" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I599" t="inlineStr"/>
@@ -28637,7 +28637,7 @@
         </is>
       </c>
       <c r="C600" t="n">
-        <v>3000009100</v>
+        <v>3000009102</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -28656,12 +28656,12 @@
       </c>
       <c r="G600" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H600" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I600" t="inlineStr"/>
@@ -28682,7 +28682,7 @@
         </is>
       </c>
       <c r="C601" t="n">
-        <v>3000009100</v>
+        <v>3000009102</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -28701,12 +28701,12 @@
       </c>
       <c r="G601" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H601" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I601" t="inlineStr"/>
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="C602" t="n">
-        <v>3000009100</v>
+        <v>3000009102</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -28746,12 +28746,12 @@
       </c>
       <c r="G602" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H602" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I602" t="inlineStr"/>
@@ -28772,7 +28772,7 @@
         </is>
       </c>
       <c r="C603" t="n">
-        <v>3000009100</v>
+        <v>3000009102</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -28791,12 +28791,12 @@
       </c>
       <c r="G603" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H603" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I603" t="inlineStr"/>
@@ -28817,7 +28817,7 @@
         </is>
       </c>
       <c r="C604" t="n">
-        <v>3000009100</v>
+        <v>3000009102</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -28836,12 +28836,12 @@
       </c>
       <c r="G604" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H604" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I604" t="inlineStr"/>
@@ -28862,7 +28862,7 @@
         </is>
       </c>
       <c r="C605" t="n">
-        <v>3000009100</v>
+        <v>3000009102</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -28881,12 +28881,12 @@
       </c>
       <c r="G605" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H605" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I605" t="inlineStr"/>
@@ -28907,7 +28907,7 @@
         </is>
       </c>
       <c r="C606" t="n">
-        <v>3000009106</v>
+        <v>3000009108</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -28926,12 +28926,12 @@
       </c>
       <c r="G606" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H606" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I606" t="inlineStr">
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="C607" t="n">
-        <v>3000009106</v>
+        <v>3000009108</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -28975,12 +28975,12 @@
       </c>
       <c r="G607" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H607" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I607" t="inlineStr">
@@ -29005,7 +29005,7 @@
         </is>
       </c>
       <c r="C608" t="n">
-        <v>3000009106</v>
+        <v>3000009108</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -29024,12 +29024,12 @@
       </c>
       <c r="G608" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H608" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I608" t="inlineStr">
@@ -29054,7 +29054,7 @@
         </is>
       </c>
       <c r="C609" t="n">
-        <v>3000009106</v>
+        <v>3000009108</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -29073,12 +29073,12 @@
       </c>
       <c r="G609" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H609" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I609" t="inlineStr">
@@ -29103,7 +29103,7 @@
         </is>
       </c>
       <c r="C610" t="n">
-        <v>3000009106</v>
+        <v>3000009108</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -29122,12 +29122,12 @@
       </c>
       <c r="G610" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H610" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I610" t="inlineStr">
@@ -29152,7 +29152,7 @@
         </is>
       </c>
       <c r="C611" t="n">
-        <v>3000009106</v>
+        <v>3000009108</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -29171,12 +29171,12 @@
       </c>
       <c r="G611" t="inlineStr">
         <is>
-          <t>10T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H611" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I611" t="inlineStr">
@@ -29220,12 +29220,12 @@
       </c>
       <c r="G612" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H612" t="inlineStr">
         <is>
-          <t>12M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I612" t="inlineStr">
@@ -29269,12 +29269,12 @@
       </c>
       <c r="G613" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H613" t="inlineStr">
         <is>
-          <t>12M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I613" t="inlineStr">
@@ -29318,12 +29318,12 @@
       </c>
       <c r="G614" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H614" t="inlineStr">
         <is>
-          <t>12M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I614" t="inlineStr">
@@ -29367,12 +29367,12 @@
       </c>
       <c r="G615" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H615" t="inlineStr">
         <is>
-          <t>12M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I615" t="inlineStr">
@@ -29416,12 +29416,12 @@
       </c>
       <c r="G616" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H616" t="inlineStr">
         <is>
-          <t>12M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I616" t="inlineStr">
@@ -29465,12 +29465,12 @@
       </c>
       <c r="G617" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H617" t="inlineStr">
         <is>
-          <t>12M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I617" t="inlineStr">
@@ -29514,12 +29514,12 @@
       </c>
       <c r="G618" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H618" t="inlineStr">
         <is>
-          <t>13.5M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I618" t="inlineStr"/>
@@ -29559,12 +29559,12 @@
       </c>
       <c r="G619" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H619" t="inlineStr">
         <is>
-          <t>13.5M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I619" t="inlineStr"/>
@@ -29604,12 +29604,12 @@
       </c>
       <c r="G620" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H620" t="inlineStr">
         <is>
-          <t>13.5M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I620" t="inlineStr"/>
@@ -29649,12 +29649,12 @@
       </c>
       <c r="G621" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H621" t="inlineStr">
         <is>
-          <t>13.5M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I621" t="inlineStr"/>
@@ -29694,12 +29694,12 @@
       </c>
       <c r="G622" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H622" t="inlineStr">
         <is>
-          <t>13.5M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I622" t="inlineStr"/>
@@ -29739,12 +29739,12 @@
       </c>
       <c r="G623" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H623" t="inlineStr">
         <is>
-          <t>13.5M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I623" t="inlineStr"/>
@@ -29784,12 +29784,12 @@
       </c>
       <c r="G624" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H624" t="inlineStr">
         <is>
-          <t>13.5M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I624" t="inlineStr"/>
@@ -29829,12 +29829,12 @@
       </c>
       <c r="G625" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H625" t="inlineStr">
         <is>
-          <t>13.5M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I625" t="inlineStr"/>
@@ -29874,12 +29874,12 @@
       </c>
       <c r="G626" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H626" t="inlineStr">
         <is>
-          <t>13.5M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I626" t="inlineStr"/>
@@ -29919,12 +29919,12 @@
       </c>
       <c r="G627" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H627" t="inlineStr">
         <is>
-          <t>13.5M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I627" t="inlineStr"/>
@@ -29964,12 +29964,12 @@
       </c>
       <c r="G628" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H628" t="inlineStr">
         <is>
-          <t>13.5M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I628" t="inlineStr"/>
@@ -30009,12 +30009,12 @@
       </c>
       <c r="G629" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H629" t="inlineStr">
         <is>
-          <t>13.5M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I629" t="inlineStr"/>
@@ -30054,12 +30054,12 @@
       </c>
       <c r="G630" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H630" t="inlineStr">
         <is>
-          <t>13.5M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I630" t="inlineStr"/>
@@ -30099,12 +30099,12 @@
       </c>
       <c r="G631" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H631" t="inlineStr">
         <is>
-          <t>13.5M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I631" t="inlineStr"/>
@@ -30144,12 +30144,12 @@
       </c>
       <c r="G632" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H632" t="inlineStr">
         <is>
-          <t>13.5M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I632" t="inlineStr"/>
@@ -30189,12 +30189,12 @@
       </c>
       <c r="G633" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H633" t="inlineStr">
         <is>
-          <t>13.5M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I633" t="inlineStr"/>
@@ -30234,12 +30234,12 @@
       </c>
       <c r="G634" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H634" t="inlineStr">
         <is>
-          <t>13.5M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I634" t="inlineStr"/>
@@ -30279,12 +30279,12 @@
       </c>
       <c r="G635" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H635" t="inlineStr">
         <is>
-          <t>13.5M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I635" t="inlineStr"/>
@@ -30324,12 +30324,12 @@
       </c>
       <c r="G636" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H636" t="inlineStr">
         <is>
-          <t>13.5M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I636" t="inlineStr"/>
@@ -30369,12 +30369,12 @@
       </c>
       <c r="G637" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H637" t="inlineStr">
         <is>
-          <t>13.5M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I637" t="inlineStr"/>
@@ -30414,12 +30414,12 @@
       </c>
       <c r="G638" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H638" t="inlineStr">
         <is>
-          <t>13.5M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I638" t="inlineStr"/>
@@ -30459,12 +30459,12 @@
       </c>
       <c r="G639" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H639" t="inlineStr">
         <is>
-          <t>13.5M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I639" t="inlineStr"/>
@@ -30504,12 +30504,12 @@
       </c>
       <c r="G640" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H640" t="inlineStr">
         <is>
-          <t>13.5M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I640" t="inlineStr"/>
@@ -30549,12 +30549,12 @@
       </c>
       <c r="G641" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H641" t="inlineStr">
         <is>
-          <t>13.5M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I641" t="inlineStr"/>
@@ -30594,12 +30594,12 @@
       </c>
       <c r="G642" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H642" t="inlineStr">
         <is>
-          <t>13.5M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I642" t="inlineStr"/>
@@ -30639,12 +30639,12 @@
       </c>
       <c r="G643" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H643" t="inlineStr">
         <is>
-          <t>13.5M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I643" t="inlineStr"/>
@@ -30684,12 +30684,12 @@
       </c>
       <c r="G644" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H644" t="inlineStr">
         <is>
-          <t>13.5M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I644" t="inlineStr"/>
@@ -30729,12 +30729,12 @@
       </c>
       <c r="G645" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H645" t="inlineStr">
         <is>
-          <t>13.5M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I645" t="inlineStr"/>
@@ -30774,12 +30774,12 @@
       </c>
       <c r="G646" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H646" t="inlineStr">
         <is>
-          <t>13.5M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I646" t="inlineStr"/>
@@ -30819,12 +30819,12 @@
       </c>
       <c r="G647" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H647" t="inlineStr">
         <is>
-          <t>13.5M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I647" t="inlineStr"/>
@@ -30864,12 +30864,12 @@
       </c>
       <c r="G648" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H648" t="inlineStr">
         <is>
-          <t>13.5M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I648" t="inlineStr"/>
@@ -30909,12 +30909,12 @@
       </c>
       <c r="G649" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H649" t="inlineStr">
         <is>
-          <t>13.5M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I649" t="inlineStr"/>
@@ -30954,12 +30954,12 @@
       </c>
       <c r="G650" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H650" t="inlineStr">
         <is>
-          <t>13.5M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I650" t="inlineStr"/>
@@ -30999,12 +30999,12 @@
       </c>
       <c r="G651" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H651" t="inlineStr">
         <is>
-          <t>13.5M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I651" t="inlineStr"/>
@@ -31044,12 +31044,12 @@
       </c>
       <c r="G652" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H652" t="inlineStr">
         <is>
-          <t>13.5M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I652" t="inlineStr"/>
@@ -31089,12 +31089,12 @@
       </c>
       <c r="G653" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H653" t="inlineStr">
         <is>
-          <t>13.5M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I653" t="inlineStr"/>
@@ -31134,12 +31134,12 @@
       </c>
       <c r="G654" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H654" t="inlineStr">
         <is>
-          <t>13.5M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I654" t="inlineStr"/>
@@ -31179,12 +31179,12 @@
       </c>
       <c r="G655" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H655" t="inlineStr">
         <is>
-          <t>13.5M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I655" t="inlineStr"/>
@@ -31224,12 +31224,12 @@
       </c>
       <c r="G656" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H656" t="inlineStr">
         <is>
-          <t>13.5M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I656" t="inlineStr"/>
@@ -31269,12 +31269,12 @@
       </c>
       <c r="G657" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H657" t="inlineStr">
         <is>
-          <t>13.5M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I657" t="inlineStr"/>
@@ -31314,12 +31314,12 @@
       </c>
       <c r="G658" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H658" t="inlineStr">
         <is>
-          <t>13.5M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I658" t="inlineStr"/>
@@ -31359,12 +31359,12 @@
       </c>
       <c r="G659" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H659" t="inlineStr">
         <is>
-          <t>13.5M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I659" t="inlineStr"/>
@@ -31404,12 +31404,12 @@
       </c>
       <c r="G660" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H660" t="inlineStr">
         <is>
-          <t>13.5M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I660" t="inlineStr"/>
@@ -31449,12 +31449,12 @@
       </c>
       <c r="G661" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H661" t="inlineStr">
         <is>
-          <t>13.5M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I661" t="inlineStr"/>
@@ -31494,12 +31494,12 @@
       </c>
       <c r="G662" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H662" t="inlineStr">
         <is>
-          <t>13.5M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I662" t="inlineStr"/>
@@ -31539,12 +31539,12 @@
       </c>
       <c r="G663" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H663" t="inlineStr">
         <is>
-          <t>13.5M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I663" t="inlineStr"/>
@@ -31584,12 +31584,12 @@
       </c>
       <c r="G664" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H664" t="inlineStr">
         <is>
-          <t>13.5M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I664" t="inlineStr"/>
@@ -31629,12 +31629,12 @@
       </c>
       <c r="G665" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>20.0T</t>
         </is>
       </c>
       <c r="H665" t="inlineStr">
         <is>
-          <t>13.5M</t>
+          <t>12.0M</t>
         </is>
       </c>
       <c r="I665" t="inlineStr"/>
@@ -31655,11 +31655,11 @@
         </is>
       </c>
       <c r="C666" t="n">
-        <v>3000009102</v>
+        <v>3000005470</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
-          <t>TZRU00-0020</t>
+          <t>TZRU00-0050</t>
         </is>
       </c>
       <c r="E666" t="inlineStr">
@@ -31669,23 +31669,31 @@
       </c>
       <c r="F666" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>PO1033</t>
         </is>
       </c>
       <c r="G666" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>3.5T</t>
         </is>
       </c>
       <c r="H666" t="inlineStr">
         <is>
-          <t>13.5M</t>
-        </is>
-      </c>
-      <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
+          <t>6.0M</t>
+        </is>
+      </c>
+      <c r="I666" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J666" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K666" t="n">
-        <v>50000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="667">
@@ -31700,11 +31708,11 @@
         </is>
       </c>
       <c r="C667" t="n">
-        <v>3000009102</v>
+        <v>3000005470</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
-          <t>TZRU00-0020</t>
+          <t>TZRU00-0050</t>
         </is>
       </c>
       <c r="E667" t="inlineStr">
@@ -31714,23 +31722,31 @@
       </c>
       <c r="F667" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>PO1033</t>
         </is>
       </c>
       <c r="G667" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>3.5T</t>
         </is>
       </c>
       <c r="H667" t="inlineStr">
         <is>
-          <t>13.5M</t>
-        </is>
-      </c>
-      <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
+          <t>6.0M</t>
+        </is>
+      </c>
+      <c r="I667" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J667" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K667" t="n">
-        <v>50000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="668">
@@ -31745,11 +31761,11 @@
         </is>
       </c>
       <c r="C668" t="n">
-        <v>3000009102</v>
+        <v>3000005470</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
-          <t>TZRU00-0050</t>
+          <t>TZRU00-0070</t>
         </is>
       </c>
       <c r="E668" t="inlineStr">
@@ -31759,23 +31775,31 @@
       </c>
       <c r="F668" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>PO1033</t>
         </is>
       </c>
       <c r="G668" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>3.5T</t>
         </is>
       </c>
       <c r="H668" t="inlineStr">
         <is>
-          <t>13.5M</t>
-        </is>
-      </c>
-      <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
+          <t>6.0M</t>
+        </is>
+      </c>
+      <c r="I668" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J668" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K668" t="n">
-        <v>30000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="669">
@@ -31790,11 +31814,11 @@
         </is>
       </c>
       <c r="C669" t="n">
-        <v>3000009102</v>
+        <v>3000005470</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
-          <t>TZRU00-0050</t>
+          <t>TZRU00-0070</t>
         </is>
       </c>
       <c r="E669" t="inlineStr">
@@ -31804,23 +31828,31 @@
       </c>
       <c r="F669" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>PO1033</t>
         </is>
       </c>
       <c r="G669" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>3.5T</t>
         </is>
       </c>
       <c r="H669" t="inlineStr">
         <is>
-          <t>13.5M</t>
-        </is>
-      </c>
-      <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
+          <t>6.0M</t>
+        </is>
+      </c>
+      <c r="I669" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J669" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K669" t="n">
-        <v>30000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="670">
@@ -31835,37 +31867,45 @@
         </is>
       </c>
       <c r="C670" t="n">
-        <v>3000009102</v>
+        <v>3000005470</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
-          <t>TZRU00-0070</t>
+          <t>TZRU63-0001</t>
         </is>
       </c>
       <c r="E670" t="inlineStr">
         <is>
-          <t>TZRU63-0001</t>
+          <t>TZRU63-0002</t>
         </is>
       </c>
       <c r="F670" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>PO1033</t>
         </is>
       </c>
       <c r="G670" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>3.5T</t>
         </is>
       </c>
       <c r="H670" t="inlineStr">
         <is>
-          <t>13.5M</t>
-        </is>
-      </c>
-      <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
+          <t>6.0M</t>
+        </is>
+      </c>
+      <c r="I670" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J670" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K670" t="n">
-        <v>13000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="671">
@@ -31880,37 +31920,45 @@
         </is>
       </c>
       <c r="C671" t="n">
-        <v>3000009102</v>
+        <v>3000005470</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
-          <t>TZRU00-0070</t>
+          <t>TZRU63-0001</t>
         </is>
       </c>
       <c r="E671" t="inlineStr">
         <is>
-          <t>TZRU63-0001</t>
+          <t>TZRU63-0002</t>
         </is>
       </c>
       <c r="F671" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>PO1033</t>
         </is>
       </c>
       <c r="G671" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>3.5T</t>
         </is>
       </c>
       <c r="H671" t="inlineStr">
         <is>
-          <t>13.5M</t>
-        </is>
-      </c>
-      <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
+          <t>6.0M</t>
+        </is>
+      </c>
+      <c r="I671" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J671" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K671" t="n">
-        <v>13000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="672">
@@ -31925,37 +31973,45 @@
         </is>
       </c>
       <c r="C672" t="n">
-        <v>3000009102</v>
+        <v>3000005470</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
-          <t>TZRU63-0002</t>
+          <t>TZRU63-0001</t>
         </is>
       </c>
       <c r="E672" t="inlineStr">
         <is>
-          <t>TZRU63-0001</t>
+          <t>TZRU63-0003</t>
         </is>
       </c>
       <c r="F672" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>PO1033</t>
         </is>
       </c>
       <c r="G672" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>3.5T</t>
         </is>
       </c>
       <c r="H672" t="inlineStr">
         <is>
-          <t>13.5M</t>
-        </is>
-      </c>
-      <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
+          <t>6.0M</t>
+        </is>
+      </c>
+      <c r="I672" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J672" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K672" t="n">
-        <v>8500</v>
+        <v>10</v>
       </c>
     </row>
     <row r="673">
@@ -31970,37 +32026,45 @@
         </is>
       </c>
       <c r="C673" t="n">
-        <v>3000009102</v>
+        <v>3000005470</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
-          <t>TZRU63-0002</t>
+          <t>TZRU63-0001</t>
         </is>
       </c>
       <c r="E673" t="inlineStr">
         <is>
-          <t>TZRU63-0001</t>
+          <t>TZRU63-0003</t>
         </is>
       </c>
       <c r="F673" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>PO1033</t>
         </is>
       </c>
       <c r="G673" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>3.5T</t>
         </is>
       </c>
       <c r="H673" t="inlineStr">
         <is>
-          <t>13.5M</t>
-        </is>
-      </c>
-      <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
+          <t>6.0M</t>
+        </is>
+      </c>
+      <c r="I673" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J673" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K673" t="n">
-        <v>8500</v>
+        <v>10</v>
       </c>
     </row>
     <row r="674">
@@ -32015,37 +32079,45 @@
         </is>
       </c>
       <c r="C674" t="n">
-        <v>3000009102</v>
+        <v>3000005470</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
-          <t>TZRU63-0003</t>
+          <t>TZRU63-0001</t>
         </is>
       </c>
       <c r="E674" t="inlineStr">
         <is>
-          <t>TZRU63-0001</t>
+          <t>TZRU63-0004</t>
         </is>
       </c>
       <c r="F674" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>PO1033</t>
         </is>
       </c>
       <c r="G674" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>3.5T</t>
         </is>
       </c>
       <c r="H674" t="inlineStr">
         <is>
-          <t>13.5M</t>
-        </is>
-      </c>
-      <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
+          <t>6.0M</t>
+        </is>
+      </c>
+      <c r="I674" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J674" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K674" t="n">
-        <v>9000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="675">
@@ -32060,37 +32132,45 @@
         </is>
       </c>
       <c r="C675" t="n">
-        <v>3000009102</v>
+        <v>3000005470</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
-          <t>TZRU63-0003</t>
+          <t>TZRU63-0001</t>
         </is>
       </c>
       <c r="E675" t="inlineStr">
         <is>
-          <t>TZRU63-0001</t>
+          <t>TZRU63-0004</t>
         </is>
       </c>
       <c r="F675" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>PO1033</t>
         </is>
       </c>
       <c r="G675" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>3.5T</t>
         </is>
       </c>
       <c r="H675" t="inlineStr">
         <is>
-          <t>13.5M</t>
-        </is>
-      </c>
-      <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
+          <t>6.0M</t>
+        </is>
+      </c>
+      <c r="I675" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J675" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K675" t="n">
-        <v>9000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="676">
@@ -32105,37 +32185,45 @@
         </is>
       </c>
       <c r="C676" t="n">
-        <v>3000009102</v>
+        <v>3000005470</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
-          <t>TZRU63-0004</t>
+          <t>TZRU63-0001</t>
         </is>
       </c>
       <c r="E676" t="inlineStr">
         <is>
-          <t>TZRU63-0001</t>
+          <t>TZRU63-0020</t>
         </is>
       </c>
       <c r="F676" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>PO1033</t>
         </is>
       </c>
       <c r="G676" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>3.5T</t>
         </is>
       </c>
       <c r="H676" t="inlineStr">
         <is>
-          <t>13.5M</t>
-        </is>
-      </c>
-      <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
+          <t>6.0M</t>
+        </is>
+      </c>
+      <c r="I676" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J676" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K676" t="n">
-        <v>10000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="677">
@@ -32150,37 +32238,45 @@
         </is>
       </c>
       <c r="C677" t="n">
-        <v>3000009102</v>
+        <v>3000005470</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
-          <t>TZRU63-0004</t>
+          <t>TZRU63-0001</t>
         </is>
       </c>
       <c r="E677" t="inlineStr">
         <is>
-          <t>TZRU63-0001</t>
+          <t>TZRU63-0020</t>
         </is>
       </c>
       <c r="F677" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>PO1033</t>
         </is>
       </c>
       <c r="G677" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>3.5T</t>
         </is>
       </c>
       <c r="H677" t="inlineStr">
         <is>
-          <t>13.5M</t>
-        </is>
-      </c>
-      <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
+          <t>6.0M</t>
+        </is>
+      </c>
+      <c r="I677" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J677" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K677" t="n">
-        <v>10000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="678">
@@ -32195,37 +32291,45 @@
         </is>
       </c>
       <c r="C678" t="n">
-        <v>3000009102</v>
+        <v>3000005470</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
-          <t>TZRU63-0020</t>
+          <t>TZRU63-0001</t>
         </is>
       </c>
       <c r="E678" t="inlineStr">
         <is>
-          <t>TZRU63-0001</t>
+          <t>TZRU63-0060</t>
         </is>
       </c>
       <c r="F678" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>PO1033</t>
         </is>
       </c>
       <c r="G678" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>3.5T</t>
         </is>
       </c>
       <c r="H678" t="inlineStr">
         <is>
-          <t>13.5M</t>
-        </is>
-      </c>
-      <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
+          <t>6.0M</t>
+        </is>
+      </c>
+      <c r="I678" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J678" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K678" t="n">
-        <v>11000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="679">
@@ -32240,37 +32344,45 @@
         </is>
       </c>
       <c r="C679" t="n">
-        <v>3000009102</v>
+        <v>3000005470</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
-          <t>TZRU63-0020</t>
+          <t>TZRU63-0001</t>
         </is>
       </c>
       <c r="E679" t="inlineStr">
         <is>
-          <t>TZRU63-0001</t>
+          <t>TZRU63-0060</t>
         </is>
       </c>
       <c r="F679" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>PO1033</t>
         </is>
       </c>
       <c r="G679" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>3.5T</t>
         </is>
       </c>
       <c r="H679" t="inlineStr">
         <is>
-          <t>13.5M</t>
-        </is>
-      </c>
-      <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
+          <t>6.0M</t>
+        </is>
+      </c>
+      <c r="I679" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J679" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K679" t="n">
-        <v>11000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="680">
@@ -32285,37 +32397,45 @@
         </is>
       </c>
       <c r="C680" t="n">
-        <v>3000009102</v>
+        <v>3000005470</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
+          <t>TZRU63-0001</t>
+        </is>
+      </c>
+      <c r="E680" t="inlineStr">
+        <is>
           <t>TZRU63-0070</t>
         </is>
       </c>
-      <c r="E680" t="inlineStr">
-        <is>
-          <t>TZRU63-0001</t>
-        </is>
-      </c>
       <c r="F680" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>PO1033</t>
         </is>
       </c>
       <c r="G680" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>3.5T</t>
         </is>
       </c>
       <c r="H680" t="inlineStr">
         <is>
-          <t>13.5M</t>
-        </is>
-      </c>
-      <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
+          <t>6.0M</t>
+        </is>
+      </c>
+      <c r="I680" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J680" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K680" t="n">
-        <v>11500</v>
+        <v>10</v>
       </c>
     </row>
     <row r="681">
@@ -32330,37 +32450,45 @@
         </is>
       </c>
       <c r="C681" t="n">
-        <v>3000009102</v>
+        <v>3000005470</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
+          <t>TZRU63-0001</t>
+        </is>
+      </c>
+      <c r="E681" t="inlineStr">
+        <is>
           <t>TZRU63-0070</t>
         </is>
       </c>
-      <c r="E681" t="inlineStr">
-        <is>
-          <t>TZRU63-0001</t>
-        </is>
-      </c>
       <c r="F681" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>PO1033</t>
         </is>
       </c>
       <c r="G681" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>3.5T</t>
         </is>
       </c>
       <c r="H681" t="inlineStr">
         <is>
-          <t>13.5M</t>
-        </is>
-      </c>
-      <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
+          <t>6.0M</t>
+        </is>
+      </c>
+      <c r="I681" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J681" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K681" t="n">
-        <v>11500</v>
+        <v>10</v>
       </c>
     </row>
     <row r="682">
@@ -32375,37 +32503,45 @@
         </is>
       </c>
       <c r="C682" t="n">
-        <v>3000009102</v>
+        <v>3000005470</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
-          <t>TZRU63-0130</t>
+          <t>TZRU63-0001</t>
         </is>
       </c>
       <c r="E682" t="inlineStr">
         <is>
-          <t>TZRU63-0001</t>
+          <t>TZRU63-0080</t>
         </is>
       </c>
       <c r="F682" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>PO1033</t>
         </is>
       </c>
       <c r="G682" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>3.5T</t>
         </is>
       </c>
       <c r="H682" t="inlineStr">
         <is>
-          <t>13.5M</t>
-        </is>
-      </c>
-      <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
+          <t>6.0M</t>
+        </is>
+      </c>
+      <c r="I682" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J682" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K682" t="n">
-        <v>21000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="683">
@@ -32420,37 +32556,45 @@
         </is>
       </c>
       <c r="C683" t="n">
-        <v>3000009102</v>
+        <v>3000005470</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
-          <t>TZRU63-0130</t>
+          <t>TZRU63-0001</t>
         </is>
       </c>
       <c r="E683" t="inlineStr">
         <is>
-          <t>TZRU63-0001</t>
+          <t>TZRU63-0080</t>
         </is>
       </c>
       <c r="F683" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>PO1033</t>
         </is>
       </c>
       <c r="G683" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>3.5T</t>
         </is>
       </c>
       <c r="H683" t="inlineStr">
         <is>
-          <t>13.5M</t>
-        </is>
-      </c>
-      <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
+          <t>6.0M</t>
+        </is>
+      </c>
+      <c r="I683" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J683" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K683" t="n">
-        <v>21000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="684">
@@ -32465,37 +32609,45 @@
         </is>
       </c>
       <c r="C684" t="n">
-        <v>3000009102</v>
+        <v>3000005470</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
-          <t>TZRU63-0002</t>
+          <t>TZRU63-0001</t>
         </is>
       </c>
       <c r="E684" t="inlineStr">
         <is>
-          <t>TZRU63-0001</t>
+          <t>TZRU63-0090</t>
         </is>
       </c>
       <c r="F684" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>PO1033</t>
         </is>
       </c>
       <c r="G684" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>3.5T</t>
         </is>
       </c>
       <c r="H684" t="inlineStr">
         <is>
-          <t>13.5M</t>
-        </is>
-      </c>
-      <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
+          <t>6.0M</t>
+        </is>
+      </c>
+      <c r="I684" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J684" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K684" t="n">
-        <v>8500</v>
+        <v>10</v>
       </c>
     </row>
     <row r="685">
@@ -32510,37 +32662,45 @@
         </is>
       </c>
       <c r="C685" t="n">
-        <v>3000009102</v>
+        <v>3000005470</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
-          <t>TZRU63-0002</t>
+          <t>TZRU63-0001</t>
         </is>
       </c>
       <c r="E685" t="inlineStr">
         <is>
-          <t>TZRU63-0001</t>
+          <t>TZRU63-0090</t>
         </is>
       </c>
       <c r="F685" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>PO1033</t>
         </is>
       </c>
       <c r="G685" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>3.5T</t>
         </is>
       </c>
       <c r="H685" t="inlineStr">
         <is>
-          <t>13.5M</t>
-        </is>
-      </c>
-      <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
+          <t>6.0M</t>
+        </is>
+      </c>
+      <c r="I685" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J685" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K685" t="n">
-        <v>8500</v>
+        <v>10</v>
       </c>
     </row>
     <row r="686">
@@ -32555,37 +32715,45 @@
         </is>
       </c>
       <c r="C686" t="n">
-        <v>3000009102</v>
+        <v>3000005470</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
-          <t>TZRU63-0003</t>
+          <t>TZRU63-0001</t>
         </is>
       </c>
       <c r="E686" t="inlineStr">
         <is>
-          <t>TZRU63-0001</t>
+          <t>TZRU63-0100</t>
         </is>
       </c>
       <c r="F686" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>PO1033</t>
         </is>
       </c>
       <c r="G686" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>3.5T</t>
         </is>
       </c>
       <c r="H686" t="inlineStr">
         <is>
-          <t>13.5M</t>
-        </is>
-      </c>
-      <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
+          <t>6.0M</t>
+        </is>
+      </c>
+      <c r="I686" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J686" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K686" t="n">
-        <v>9000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="687">
@@ -32600,37 +32768,45 @@
         </is>
       </c>
       <c r="C687" t="n">
-        <v>3000009102</v>
+        <v>3000005470</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
-          <t>TZRU63-0003</t>
+          <t>TZRU63-0001</t>
         </is>
       </c>
       <c r="E687" t="inlineStr">
         <is>
-          <t>TZRU63-0001</t>
+          <t>TZRU63-0100</t>
         </is>
       </c>
       <c r="F687" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>PO1033</t>
         </is>
       </c>
       <c r="G687" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>3.5T</t>
         </is>
       </c>
       <c r="H687" t="inlineStr">
         <is>
-          <t>13.5M</t>
-        </is>
-      </c>
-      <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
+          <t>6.0M</t>
+        </is>
+      </c>
+      <c r="I687" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J687" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K687" t="n">
-        <v>9000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="688">
@@ -32645,37 +32821,45 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>3000009102</v>
+        <v>3000005470</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
-          <t>TZRU63-0004</t>
+          <t>TZRU63-0001</t>
         </is>
       </c>
       <c r="E688" t="inlineStr">
         <is>
-          <t>TZRU63-0001</t>
+          <t>TZRU63-0110</t>
         </is>
       </c>
       <c r="F688" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>PO1033</t>
         </is>
       </c>
       <c r="G688" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>3.5T</t>
         </is>
       </c>
       <c r="H688" t="inlineStr">
         <is>
-          <t>13.5M</t>
-        </is>
-      </c>
-      <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
+          <t>6.0M</t>
+        </is>
+      </c>
+      <c r="I688" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J688" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K688" t="n">
-        <v>10000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="689">
@@ -32690,37 +32874,45 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>3000009102</v>
+        <v>3000005470</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
-          <t>TZRU63-0004</t>
+          <t>TZRU63-0001</t>
         </is>
       </c>
       <c r="E689" t="inlineStr">
         <is>
-          <t>TZRU63-0001</t>
+          <t>TZRU63-0110</t>
         </is>
       </c>
       <c r="F689" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>PO1033</t>
         </is>
       </c>
       <c r="G689" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>3.5T</t>
         </is>
       </c>
       <c r="H689" t="inlineStr">
         <is>
-          <t>13.5M</t>
-        </is>
-      </c>
-      <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
+          <t>6.0M</t>
+        </is>
+      </c>
+      <c r="I689" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J689" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K689" t="n">
-        <v>10000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="690">
@@ -32735,37 +32927,45 @@
         </is>
       </c>
       <c r="C690" t="n">
-        <v>3000009102</v>
+        <v>3000005470</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
-          <t>TZRU63-0020</t>
+          <t>TZRU63-0001</t>
         </is>
       </c>
       <c r="E690" t="inlineStr">
         <is>
-          <t>TZRU63-0001</t>
+          <t>TZRU63-0120</t>
         </is>
       </c>
       <c r="F690" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>PO1033</t>
         </is>
       </c>
       <c r="G690" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>3.5T</t>
         </is>
       </c>
       <c r="H690" t="inlineStr">
         <is>
-          <t>13.5M</t>
-        </is>
-      </c>
-      <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
+          <t>6.0M</t>
+        </is>
+      </c>
+      <c r="I690" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J690" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K690" t="n">
-        <v>11000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="691">
@@ -32780,37 +32980,45 @@
         </is>
       </c>
       <c r="C691" t="n">
-        <v>3000009102</v>
+        <v>3000005470</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
-          <t>TZRU63-0020</t>
+          <t>TZRU63-0001</t>
         </is>
       </c>
       <c r="E691" t="inlineStr">
         <is>
-          <t>TZRU63-0001</t>
+          <t>TZRU63-0120</t>
         </is>
       </c>
       <c r="F691" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>PO1033</t>
         </is>
       </c>
       <c r="G691" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>3.5T</t>
         </is>
       </c>
       <c r="H691" t="inlineStr">
         <is>
-          <t>13.5M</t>
-        </is>
-      </c>
-      <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
+          <t>6.0M</t>
+        </is>
+      </c>
+      <c r="I691" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J691" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K691" t="n">
-        <v>11000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="692">
@@ -32825,37 +33033,45 @@
         </is>
       </c>
       <c r="C692" t="n">
-        <v>3000009102</v>
+        <v>3000005470</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
-          <t>TZRU63-0070</t>
+          <t>TZRU63-0001</t>
         </is>
       </c>
       <c r="E692" t="inlineStr">
         <is>
-          <t>TZRU63-0001</t>
+          <t>TZRU63-0130</t>
         </is>
       </c>
       <c r="F692" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>PO1033</t>
         </is>
       </c>
       <c r="G692" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>3.5T</t>
         </is>
       </c>
       <c r="H692" t="inlineStr">
         <is>
-          <t>13.5M</t>
-        </is>
-      </c>
-      <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
+          <t>6.0M</t>
+        </is>
+      </c>
+      <c r="I692" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J692" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K692" t="n">
-        <v>11500</v>
+        <v>10</v>
       </c>
     </row>
     <row r="693">
@@ -32870,37 +33086,45 @@
         </is>
       </c>
       <c r="C693" t="n">
-        <v>3000009102</v>
+        <v>3000005470</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
-          <t>TZRU63-0070</t>
+          <t>TZRU63-0001</t>
         </is>
       </c>
       <c r="E693" t="inlineStr">
         <is>
-          <t>TZRU63-0001</t>
+          <t>TZRU63-0130</t>
         </is>
       </c>
       <c r="F693" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>PO1033</t>
         </is>
       </c>
       <c r="G693" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>3.5T</t>
         </is>
       </c>
       <c r="H693" t="inlineStr">
         <is>
-          <t>13.5M</t>
-        </is>
-      </c>
-      <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
+          <t>6.0M</t>
+        </is>
+      </c>
+      <c r="I693" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J693" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K693" t="n">
-        <v>11500</v>
+        <v>10</v>
       </c>
     </row>
     <row r="694">
@@ -32915,37 +33139,45 @@
         </is>
       </c>
       <c r="C694" t="n">
-        <v>3000009102</v>
+        <v>3000005470</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
-          <t>TZRU63-0130</t>
+          <t>TZRU63-0001</t>
         </is>
       </c>
       <c r="E694" t="inlineStr">
         <is>
-          <t>TZRU63-0001</t>
+          <t>TZRU63-0140</t>
         </is>
       </c>
       <c r="F694" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>PO1033</t>
         </is>
       </c>
       <c r="G694" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>3.5T</t>
         </is>
       </c>
       <c r="H694" t="inlineStr">
         <is>
-          <t>13.5M</t>
-        </is>
-      </c>
-      <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
+          <t>6.0M</t>
+        </is>
+      </c>
+      <c r="I694" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J694" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K694" t="n">
-        <v>21000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="695">
@@ -32960,37 +33192,45 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>3000009102</v>
+        <v>3000005470</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
-          <t>TZRU63-0130</t>
+          <t>TZRU63-0001</t>
         </is>
       </c>
       <c r="E695" t="inlineStr">
         <is>
-          <t>TZRU63-0001</t>
+          <t>TZRU63-0140</t>
         </is>
       </c>
       <c r="F695" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>PO1033</t>
         </is>
       </c>
       <c r="G695" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>3.5T</t>
         </is>
       </c>
       <c r="H695" t="inlineStr">
         <is>
-          <t>13.5M</t>
-        </is>
-      </c>
-      <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
+          <t>6.0M</t>
+        </is>
+      </c>
+      <c r="I695" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J695" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K695" t="n">
-        <v>21000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="696">
@@ -33005,7 +33245,7 @@
         </is>
       </c>
       <c r="C696" t="n">
-        <v>3000009102</v>
+        <v>3000005470</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -33014,28 +33254,36 @@
       </c>
       <c r="E696" t="inlineStr">
         <is>
-          <t>TZRU63-0002</t>
+          <t>TZRU63-0150</t>
         </is>
       </c>
       <c r="F696" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>PO1033</t>
         </is>
       </c>
       <c r="G696" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>3.5T</t>
         </is>
       </c>
       <c r="H696" t="inlineStr">
         <is>
-          <t>13.5M</t>
-        </is>
-      </c>
-      <c r="I696" t="inlineStr"/>
-      <c r="J696" t="inlineStr"/>
+          <t>6.0M</t>
+        </is>
+      </c>
+      <c r="I696" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J696" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K696" t="n">
-        <v>8500</v>
+        <v>10</v>
       </c>
     </row>
     <row r="697">
@@ -33050,7 +33298,7 @@
         </is>
       </c>
       <c r="C697" t="n">
-        <v>3000009102</v>
+        <v>3000005470</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -33059,28 +33307,36 @@
       </c>
       <c r="E697" t="inlineStr">
         <is>
-          <t>TZRU63-0002</t>
+          <t>TZRU63-0150</t>
         </is>
       </c>
       <c r="F697" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>PO1033</t>
         </is>
       </c>
       <c r="G697" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>3.5T</t>
         </is>
       </c>
       <c r="H697" t="inlineStr">
         <is>
-          <t>13.5M</t>
-        </is>
-      </c>
-      <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
+          <t>6.0M</t>
+        </is>
+      </c>
+      <c r="I697" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J697" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K697" t="n">
-        <v>8500</v>
+        <v>10</v>
       </c>
     </row>
     <row r="698">
@@ -33095,7 +33351,7 @@
         </is>
       </c>
       <c r="C698" t="n">
-        <v>3000009102</v>
+        <v>3000005470</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -33104,28 +33360,36 @@
       </c>
       <c r="E698" t="inlineStr">
         <is>
-          <t>TZRU63-0003</t>
+          <t>TZRU63-0160</t>
         </is>
       </c>
       <c r="F698" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>PO1033</t>
         </is>
       </c>
       <c r="G698" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>3.5T</t>
         </is>
       </c>
       <c r="H698" t="inlineStr">
         <is>
-          <t>13.5M</t>
-        </is>
-      </c>
-      <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
+          <t>6.0M</t>
+        </is>
+      </c>
+      <c r="I698" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J698" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K698" t="n">
-        <v>9000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="699">
@@ -33140,7 +33404,7 @@
         </is>
       </c>
       <c r="C699" t="n">
-        <v>3000009102</v>
+        <v>3000005470</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -33149,28 +33413,36 @@
       </c>
       <c r="E699" t="inlineStr">
         <is>
-          <t>TZRU63-0003</t>
+          <t>TZRU63-0160</t>
         </is>
       </c>
       <c r="F699" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>PO1033</t>
         </is>
       </c>
       <c r="G699" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>3.5T</t>
         </is>
       </c>
       <c r="H699" t="inlineStr">
         <is>
-          <t>13.5M</t>
-        </is>
-      </c>
-      <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
+          <t>6.0M</t>
+        </is>
+      </c>
+      <c r="I699" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J699" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K699" t="n">
-        <v>9000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="700">
@@ -33185,7 +33457,7 @@
         </is>
       </c>
       <c r="C700" t="n">
-        <v>3000009102</v>
+        <v>3000005470</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -33194,28 +33466,36 @@
       </c>
       <c r="E700" t="inlineStr">
         <is>
-          <t>TZRU63-0004</t>
+          <t>TZRU63-0170</t>
         </is>
       </c>
       <c r="F700" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>PO1033</t>
         </is>
       </c>
       <c r="G700" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>3.5T</t>
         </is>
       </c>
       <c r="H700" t="inlineStr">
         <is>
-          <t>13.5M</t>
-        </is>
-      </c>
-      <c r="I700" t="inlineStr"/>
-      <c r="J700" t="inlineStr"/>
+          <t>6.0M</t>
+        </is>
+      </c>
+      <c r="I700" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J700" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K700" t="n">
-        <v>10000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="701">
@@ -33230,7 +33510,7 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>3000009102</v>
+        <v>3000005470</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -33239,28 +33519,36 @@
       </c>
       <c r="E701" t="inlineStr">
         <is>
-          <t>TZRU63-0004</t>
+          <t>TZRU63-0170</t>
         </is>
       </c>
       <c r="F701" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>PO1033</t>
         </is>
       </c>
       <c r="G701" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>3.5T</t>
         </is>
       </c>
       <c r="H701" t="inlineStr">
         <is>
-          <t>13.5M</t>
-        </is>
-      </c>
-      <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
+          <t>6.0M</t>
+        </is>
+      </c>
+      <c r="I701" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J701" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K701" t="n">
-        <v>10000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="702">
@@ -33275,37 +33563,45 @@
         </is>
       </c>
       <c r="C702" t="n">
-        <v>3000009102</v>
+        <v>3000005470</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
-          <t>TZRU63-0002</t>
+          <t>TZRU63-0001</t>
         </is>
       </c>
       <c r="E702" t="inlineStr">
         <is>
-          <t>TZRU63-0001</t>
+          <t>TZRU63-0180</t>
         </is>
       </c>
       <c r="F702" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>PO1033</t>
         </is>
       </c>
       <c r="G702" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>3.5T</t>
         </is>
       </c>
       <c r="H702" t="inlineStr">
         <is>
-          <t>13.5M</t>
-        </is>
-      </c>
-      <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
+          <t>6.0M</t>
+        </is>
+      </c>
+      <c r="I702" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J702" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K702" t="n">
-        <v>8500</v>
+        <v>10</v>
       </c>
     </row>
     <row r="703">
@@ -33320,37 +33616,45 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>3000009102</v>
+        <v>3000005470</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
-          <t>TZRU63-0002</t>
+          <t>TZRU63-0001</t>
         </is>
       </c>
       <c r="E703" t="inlineStr">
         <is>
-          <t>TZRU63-0001</t>
+          <t>TZRU63-0180</t>
         </is>
       </c>
       <c r="F703" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>PO1033</t>
         </is>
       </c>
       <c r="G703" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>3.5T</t>
         </is>
       </c>
       <c r="H703" t="inlineStr">
         <is>
-          <t>13.5M</t>
-        </is>
-      </c>
-      <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
+          <t>6.0M</t>
+        </is>
+      </c>
+      <c r="I703" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J703" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K703" t="n">
-        <v>8500</v>
+        <v>10</v>
       </c>
     </row>
     <row r="704">
@@ -33365,37 +33669,45 @@
         </is>
       </c>
       <c r="C704" t="n">
-        <v>3000009102</v>
+        <v>3000005470</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
-          <t>TZRU63-0003</t>
+          <t>TZRU63-0001</t>
         </is>
       </c>
       <c r="E704" t="inlineStr">
         <is>
-          <t>TZRU63-0001</t>
+          <t>TZRU63-0190</t>
         </is>
       </c>
       <c r="F704" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>PO1033</t>
         </is>
       </c>
       <c r="G704" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>3.5T</t>
         </is>
       </c>
       <c r="H704" t="inlineStr">
         <is>
-          <t>13.5M</t>
-        </is>
-      </c>
-      <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
+          <t>6.0M</t>
+        </is>
+      </c>
+      <c r="I704" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J704" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K704" t="n">
-        <v>9000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="705">
@@ -33410,37 +33722,45 @@
         </is>
       </c>
       <c r="C705" t="n">
-        <v>3000009102</v>
+        <v>3000005470</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
-          <t>TZRU63-0003</t>
+          <t>TZRU63-0001</t>
         </is>
       </c>
       <c r="E705" t="inlineStr">
         <is>
-          <t>TZRU63-0001</t>
+          <t>TZRU63-0190</t>
         </is>
       </c>
       <c r="F705" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>PO1033</t>
         </is>
       </c>
       <c r="G705" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>3.5T</t>
         </is>
       </c>
       <c r="H705" t="inlineStr">
         <is>
-          <t>13.5M</t>
-        </is>
-      </c>
-      <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
+          <t>6.0M</t>
+        </is>
+      </c>
+      <c r="I705" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J705" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K705" t="n">
-        <v>9000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="706">
@@ -33455,37 +33775,45 @@
         </is>
       </c>
       <c r="C706" t="n">
-        <v>3000009102</v>
+        <v>3000005470</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
-          <t>TZRU63-0004</t>
+          <t>TZRU63-0001</t>
         </is>
       </c>
       <c r="E706" t="inlineStr">
         <is>
-          <t>TZRU63-0001</t>
+          <t>TZRU63-0200</t>
         </is>
       </c>
       <c r="F706" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>PO1033</t>
         </is>
       </c>
       <c r="G706" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>3.5T</t>
         </is>
       </c>
       <c r="H706" t="inlineStr">
         <is>
-          <t>13.5M</t>
-        </is>
-      </c>
-      <c r="I706" t="inlineStr"/>
-      <c r="J706" t="inlineStr"/>
+          <t>6.0M</t>
+        </is>
+      </c>
+      <c r="I706" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J706" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K706" t="n">
-        <v>10000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="707">
@@ -33500,37 +33828,45 @@
         </is>
       </c>
       <c r="C707" t="n">
-        <v>3000009102</v>
+        <v>3000005470</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
-          <t>TZRU63-0004</t>
+          <t>TZRU63-0001</t>
         </is>
       </c>
       <c r="E707" t="inlineStr">
         <is>
-          <t>TZRU63-0001</t>
+          <t>TZRU63-0200</t>
         </is>
       </c>
       <c r="F707" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>PO1033</t>
         </is>
       </c>
       <c r="G707" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>3.5T</t>
         </is>
       </c>
       <c r="H707" t="inlineStr">
         <is>
-          <t>13.5M</t>
-        </is>
-      </c>
-      <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
+          <t>6.0M</t>
+        </is>
+      </c>
+      <c r="I707" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J707" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K707" t="n">
-        <v>10000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="708">
@@ -33545,37 +33881,45 @@
         </is>
       </c>
       <c r="C708" t="n">
-        <v>3000009102</v>
+        <v>3000005470</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
-          <t>TZRU63-0020</t>
+          <t>TZRU63-0001</t>
         </is>
       </c>
       <c r="E708" t="inlineStr">
         <is>
-          <t>TZRU63-0001</t>
+          <t>TZRU63-0210</t>
         </is>
       </c>
       <c r="F708" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>PO1033</t>
         </is>
       </c>
       <c r="G708" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>3.5T</t>
         </is>
       </c>
       <c r="H708" t="inlineStr">
         <is>
-          <t>13.5M</t>
-        </is>
-      </c>
-      <c r="I708" t="inlineStr"/>
-      <c r="J708" t="inlineStr"/>
+          <t>6.0M</t>
+        </is>
+      </c>
+      <c r="I708" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J708" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K708" t="n">
-        <v>11000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="709">
@@ -33590,217 +33934,45 @@
         </is>
       </c>
       <c r="C709" t="n">
-        <v>3000009102</v>
+        <v>3000005470</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
-          <t>TZRU63-0020</t>
+          <t>TZRU63-0001</t>
         </is>
       </c>
       <c r="E709" t="inlineStr">
         <is>
-          <t>TZRU63-0001</t>
+          <t>TZRU63-0210</t>
         </is>
       </c>
       <c r="F709" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>PO1033</t>
         </is>
       </c>
       <c r="G709" t="inlineStr">
         <is>
-          <t>20T</t>
+          <t>3.5T</t>
         </is>
       </c>
       <c r="H709" t="inlineStr">
         <is>
-          <t>13.5M</t>
-        </is>
-      </c>
-      <c r="I709" t="inlineStr"/>
-      <c r="J709" t="inlineStr"/>
+          <t>6.0M</t>
+        </is>
+      </c>
+      <c r="I709" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J709" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="K709" t="n">
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="710">
-      <c r="A710" t="inlineStr">
-        <is>
-          <t>ZR11</t>
-        </is>
-      </c>
-      <c r="B710" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="C710" t="n">
-        <v>3000009102</v>
-      </c>
-      <c r="D710" t="inlineStr">
-        <is>
-          <t>TZRU63-0070</t>
-        </is>
-      </c>
-      <c r="E710" t="inlineStr">
-        <is>
-          <t>TZRU63-0001</t>
-        </is>
-      </c>
-      <c r="F710" t="inlineStr">
-        <is>
-          <t>1033</t>
-        </is>
-      </c>
-      <c r="G710" t="inlineStr">
-        <is>
-          <t>20T</t>
-        </is>
-      </c>
-      <c r="H710" t="inlineStr">
-        <is>
-          <t>13.5M</t>
-        </is>
-      </c>
-      <c r="I710" t="inlineStr"/>
-      <c r="J710" t="inlineStr"/>
-      <c r="K710" t="n">
-        <v>11500</v>
-      </c>
-    </row>
-    <row r="711">
-      <c r="A711" t="inlineStr">
-        <is>
-          <t>ZW91</t>
-        </is>
-      </c>
-      <c r="B711" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="C711" t="n">
-        <v>3000009102</v>
-      </c>
-      <c r="D711" t="inlineStr">
-        <is>
-          <t>TZRU63-0070</t>
-        </is>
-      </c>
-      <c r="E711" t="inlineStr">
-        <is>
-          <t>TZRU63-0001</t>
-        </is>
-      </c>
-      <c r="F711" t="inlineStr">
-        <is>
-          <t>1033</t>
-        </is>
-      </c>
-      <c r="G711" t="inlineStr">
-        <is>
-          <t>20T</t>
-        </is>
-      </c>
-      <c r="H711" t="inlineStr">
-        <is>
-          <t>13.5M</t>
-        </is>
-      </c>
-      <c r="I711" t="inlineStr"/>
-      <c r="J711" t="inlineStr"/>
-      <c r="K711" t="n">
-        <v>11500</v>
-      </c>
-    </row>
-    <row r="712">
-      <c r="A712" t="inlineStr">
-        <is>
-          <t>ZR11</t>
-        </is>
-      </c>
-      <c r="B712" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="C712" t="n">
-        <v>3000009102</v>
-      </c>
-      <c r="D712" t="inlineStr">
-        <is>
-          <t>TZRU63-0130</t>
-        </is>
-      </c>
-      <c r="E712" t="inlineStr">
-        <is>
-          <t>TZRU63-0001</t>
-        </is>
-      </c>
-      <c r="F712" t="inlineStr">
-        <is>
-          <t>1033</t>
-        </is>
-      </c>
-      <c r="G712" t="inlineStr">
-        <is>
-          <t>20T</t>
-        </is>
-      </c>
-      <c r="H712" t="inlineStr">
-        <is>
-          <t>13.5M</t>
-        </is>
-      </c>
-      <c r="I712" t="inlineStr"/>
-      <c r="J712" t="inlineStr"/>
-      <c r="K712" t="n">
-        <v>21000</v>
-      </c>
-    </row>
-    <row r="713">
-      <c r="A713" t="inlineStr">
-        <is>
-          <t>ZW91</t>
-        </is>
-      </c>
-      <c r="B713" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="C713" t="n">
-        <v>3000009102</v>
-      </c>
-      <c r="D713" t="inlineStr">
-        <is>
-          <t>TZRU63-0130</t>
-        </is>
-      </c>
-      <c r="E713" t="inlineStr">
-        <is>
-          <t>TZRU63-0001</t>
-        </is>
-      </c>
-      <c r="F713" t="inlineStr">
-        <is>
-          <t>1033</t>
-        </is>
-      </c>
-      <c r="G713" t="inlineStr">
-        <is>
-          <t>20T</t>
-        </is>
-      </c>
-      <c r="H713" t="inlineStr">
-        <is>
-          <t>13.5M</t>
-        </is>
-      </c>
-      <c r="I713" t="inlineStr"/>
-      <c r="J713" t="inlineStr"/>
-      <c r="K713" t="n">
-        <v>21000</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K709"/>
+  <dimension ref="A1:K757"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
@@ -23507,7 +23507,7 @@
         </is>
       </c>
       <c r="C486" t="n">
-        <v>3000009095</v>
+        <v>3000009096</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -23531,7 +23531,7 @@
       </c>
       <c r="H486" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I486" t="inlineStr"/>
@@ -23552,7 +23552,7 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>3000009095</v>
+        <v>3000009096</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -23576,7 +23576,7 @@
       </c>
       <c r="H487" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I487" t="inlineStr"/>
@@ -23597,7 +23597,7 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>3000009095</v>
+        <v>3000009096</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -23621,7 +23621,7 @@
       </c>
       <c r="H488" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I488" t="inlineStr"/>
@@ -23642,7 +23642,7 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>3000009095</v>
+        <v>3000009096</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
       </c>
       <c r="H489" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I489" t="inlineStr"/>
@@ -23687,7 +23687,7 @@
         </is>
       </c>
       <c r="C490" t="n">
-        <v>3000009095</v>
+        <v>3000009096</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -23711,7 +23711,7 @@
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I490" t="inlineStr"/>
@@ -23732,7 +23732,7 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>3000009095</v>
+        <v>3000009096</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -23756,7 +23756,7 @@
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I491" t="inlineStr"/>
@@ -23777,7 +23777,7 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>3000009095</v>
+        <v>3000009096</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -23801,7 +23801,7 @@
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I492" t="inlineStr"/>
@@ -23822,7 +23822,7 @@
         </is>
       </c>
       <c r="C493" t="n">
-        <v>3000009095</v>
+        <v>3000009096</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -23846,7 +23846,7 @@
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I493" t="inlineStr"/>
@@ -23867,7 +23867,7 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>3000009095</v>
+        <v>3000009096</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -23891,7 +23891,7 @@
       </c>
       <c r="H494" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I494" t="inlineStr"/>
@@ -23912,7 +23912,7 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>3000009095</v>
+        <v>3000009096</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I495" t="inlineStr"/>
@@ -23957,7 +23957,7 @@
         </is>
       </c>
       <c r="C496" t="n">
-        <v>3000009095</v>
+        <v>3000009096</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I496" t="inlineStr"/>
@@ -24002,7 +24002,7 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>3000009095</v>
+        <v>3000009096</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -24026,7 +24026,7 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I497" t="inlineStr"/>
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>3000009095</v>
+        <v>3000009096</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -24071,7 +24071,7 @@
       </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I498" t="inlineStr"/>
@@ -24092,7 +24092,7 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>3000009095</v>
+        <v>3000009096</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I499" t="inlineStr"/>
@@ -24137,7 +24137,7 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>3000009095</v>
+        <v>3000009096</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -24161,7 +24161,7 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I500" t="inlineStr"/>
@@ -24182,7 +24182,7 @@
         </is>
       </c>
       <c r="C501" t="n">
-        <v>3000009095</v>
+        <v>3000009096</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -24206,7 +24206,7 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I501" t="inlineStr"/>
@@ -24227,7 +24227,7 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>3000009095</v>
+        <v>3000009096</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -24251,7 +24251,7 @@
       </c>
       <c r="H502" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I502" t="inlineStr"/>
@@ -24272,7 +24272,7 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>3000009095</v>
+        <v>3000009096</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -24296,7 +24296,7 @@
       </c>
       <c r="H503" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I503" t="inlineStr"/>
@@ -24317,7 +24317,7 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>3000009095</v>
+        <v>3000009096</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -24341,7 +24341,7 @@
       </c>
       <c r="H504" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I504" t="inlineStr"/>
@@ -24362,7 +24362,7 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>3000009095</v>
+        <v>3000009096</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -24386,7 +24386,7 @@
       </c>
       <c r="H505" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I505" t="inlineStr"/>
@@ -24407,7 +24407,7 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>3000009095</v>
+        <v>3000009096</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -24431,7 +24431,7 @@
       </c>
       <c r="H506" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I506" t="inlineStr"/>
@@ -24452,7 +24452,7 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>3000009095</v>
+        <v>3000009096</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -24476,7 +24476,7 @@
       </c>
       <c r="H507" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I507" t="inlineStr"/>
@@ -24497,7 +24497,7 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>3000009095</v>
+        <v>3000009096</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -24521,7 +24521,7 @@
       </c>
       <c r="H508" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I508" t="inlineStr"/>
@@ -24542,7 +24542,7 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>3000009095</v>
+        <v>3000009096</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -24566,7 +24566,7 @@
       </c>
       <c r="H509" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I509" t="inlineStr"/>
@@ -24587,7 +24587,7 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>3000009095</v>
+        <v>3000009096</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -24611,7 +24611,7 @@
       </c>
       <c r="H510" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I510" t="inlineStr"/>
@@ -24632,7 +24632,7 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>3000009095</v>
+        <v>3000009096</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -24656,7 +24656,7 @@
       </c>
       <c r="H511" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I511" t="inlineStr"/>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>3000009095</v>
+        <v>3000009096</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -24701,7 +24701,7 @@
       </c>
       <c r="H512" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I512" t="inlineStr"/>
@@ -24722,7 +24722,7 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>3000009095</v>
+        <v>3000009096</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -24746,7 +24746,7 @@
       </c>
       <c r="H513" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I513" t="inlineStr"/>
@@ -24767,7 +24767,7 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>3000009095</v>
+        <v>3000009096</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -24791,7 +24791,7 @@
       </c>
       <c r="H514" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I514" t="inlineStr"/>
@@ -24812,7 +24812,7 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>3000009095</v>
+        <v>3000009096</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -24836,7 +24836,7 @@
       </c>
       <c r="H515" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I515" t="inlineStr"/>
@@ -24857,7 +24857,7 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>3000009095</v>
+        <v>3000009096</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -24881,7 +24881,7 @@
       </c>
       <c r="H516" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I516" t="inlineStr"/>
@@ -24902,7 +24902,7 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>3000009095</v>
+        <v>3000009096</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -24926,7 +24926,7 @@
       </c>
       <c r="H517" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I517" t="inlineStr"/>
@@ -24947,7 +24947,7 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>3000009095</v>
+        <v>3000009096</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -24971,7 +24971,7 @@
       </c>
       <c r="H518" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I518" t="inlineStr"/>
@@ -24992,7 +24992,7 @@
         </is>
       </c>
       <c r="C519" t="n">
-        <v>3000009095</v>
+        <v>3000009096</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -25016,7 +25016,7 @@
       </c>
       <c r="H519" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I519" t="inlineStr"/>
@@ -25037,7 +25037,7 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>3000009095</v>
+        <v>3000009096</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -25061,7 +25061,7 @@
       </c>
       <c r="H520" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I520" t="inlineStr"/>
@@ -25082,7 +25082,7 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>3000009095</v>
+        <v>3000009096</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
       </c>
       <c r="H521" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I521" t="inlineStr"/>
@@ -25127,7 +25127,7 @@
         </is>
       </c>
       <c r="C522" t="n">
-        <v>3000009095</v>
+        <v>3000009096</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
       </c>
       <c r="H522" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I522" t="inlineStr"/>
@@ -25172,7 +25172,7 @@
         </is>
       </c>
       <c r="C523" t="n">
-        <v>3000009095</v>
+        <v>3000009096</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -25196,7 +25196,7 @@
       </c>
       <c r="H523" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I523" t="inlineStr"/>
@@ -25217,7 +25217,7 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>3000009095</v>
+        <v>3000009096</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -25241,7 +25241,7 @@
       </c>
       <c r="H524" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I524" t="inlineStr"/>
@@ -25262,7 +25262,7 @@
         </is>
       </c>
       <c r="C525" t="n">
-        <v>3000009095</v>
+        <v>3000009096</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -25286,7 +25286,7 @@
       </c>
       <c r="H525" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I525" t="inlineStr"/>
@@ -25307,7 +25307,7 @@
         </is>
       </c>
       <c r="C526" t="n">
-        <v>3000009095</v>
+        <v>3000009096</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -25331,7 +25331,7 @@
       </c>
       <c r="H526" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I526" t="inlineStr"/>
@@ -25352,7 +25352,7 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>3000009095</v>
+        <v>3000009096</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -25376,7 +25376,7 @@
       </c>
       <c r="H527" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I527" t="inlineStr"/>
@@ -25397,7 +25397,7 @@
         </is>
       </c>
       <c r="C528" t="n">
-        <v>3000009095</v>
+        <v>3000009096</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -25421,7 +25421,7 @@
       </c>
       <c r="H528" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I528" t="inlineStr"/>
@@ -25442,7 +25442,7 @@
         </is>
       </c>
       <c r="C529" t="n">
-        <v>3000009095</v>
+        <v>3000009096</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -25466,7 +25466,7 @@
       </c>
       <c r="H529" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I529" t="inlineStr"/>
@@ -25487,7 +25487,7 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>3000009095</v>
+        <v>3000009096</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -25511,7 +25511,7 @@
       </c>
       <c r="H530" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I530" t="inlineStr"/>
@@ -25532,7 +25532,7 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>3000009095</v>
+        <v>3000009096</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
       </c>
       <c r="H531" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I531" t="inlineStr"/>
@@ -25577,7 +25577,7 @@
         </is>
       </c>
       <c r="C532" t="n">
-        <v>3000009095</v>
+        <v>3000009096</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -25601,7 +25601,7 @@
       </c>
       <c r="H532" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I532" t="inlineStr"/>
@@ -25622,7 +25622,7 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>3000009095</v>
+        <v>3000009096</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -25646,7 +25646,7 @@
       </c>
       <c r="H533" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I533" t="inlineStr"/>
@@ -25667,7 +25667,7 @@
         </is>
       </c>
       <c r="C534" t="n">
-        <v>3000009095</v>
+        <v>3000009096</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -25691,7 +25691,7 @@
       </c>
       <c r="H534" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I534" t="inlineStr"/>
@@ -25712,7 +25712,7 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>3000009095</v>
+        <v>3000009096</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -25736,7 +25736,7 @@
       </c>
       <c r="H535" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I535" t="inlineStr"/>
@@ -25757,7 +25757,7 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>3000009095</v>
+        <v>3000009096</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -25781,7 +25781,7 @@
       </c>
       <c r="H536" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I536" t="inlineStr"/>
@@ -25802,7 +25802,7 @@
         </is>
       </c>
       <c r="C537" t="n">
-        <v>3000009095</v>
+        <v>3000009096</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -25826,7 +25826,7 @@
       </c>
       <c r="H537" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I537" t="inlineStr"/>
@@ -25847,7 +25847,7 @@
         </is>
       </c>
       <c r="C538" t="n">
-        <v>3000009095</v>
+        <v>3000009096</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -25871,7 +25871,7 @@
       </c>
       <c r="H538" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I538" t="inlineStr"/>
@@ -25892,7 +25892,7 @@
         </is>
       </c>
       <c r="C539" t="n">
-        <v>3000009095</v>
+        <v>3000009096</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -25916,7 +25916,7 @@
       </c>
       <c r="H539" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I539" t="inlineStr"/>
@@ -25937,7 +25937,7 @@
         </is>
       </c>
       <c r="C540" t="n">
-        <v>3000009095</v>
+        <v>3000009096</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -25961,7 +25961,7 @@
       </c>
       <c r="H540" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I540" t="inlineStr"/>
@@ -25982,7 +25982,7 @@
         </is>
       </c>
       <c r="C541" t="n">
-        <v>3000009095</v>
+        <v>3000009096</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -26006,7 +26006,7 @@
       </c>
       <c r="H541" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I541" t="inlineStr"/>
@@ -26027,7 +26027,7 @@
         </is>
       </c>
       <c r="C542" t="n">
-        <v>3000009095</v>
+        <v>3000009096</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -26051,7 +26051,7 @@
       </c>
       <c r="H542" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I542" t="inlineStr"/>
@@ -26072,7 +26072,7 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>3000009095</v>
+        <v>3000009096</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -26096,7 +26096,7 @@
       </c>
       <c r="H543" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I543" t="inlineStr"/>
@@ -26117,7 +26117,7 @@
         </is>
       </c>
       <c r="C544" t="n">
-        <v>3000009095</v>
+        <v>3000009096</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -26141,7 +26141,7 @@
       </c>
       <c r="H544" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I544" t="inlineStr"/>
@@ -26162,7 +26162,7 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>3000009095</v>
+        <v>3000009096</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -26186,7 +26186,7 @@
       </c>
       <c r="H545" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I545" t="inlineStr"/>
@@ -26207,7 +26207,7 @@
         </is>
       </c>
       <c r="C546" t="n">
-        <v>3000009102</v>
+        <v>3000009100</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -26226,12 +26226,12 @@
       </c>
       <c r="G546" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H546" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I546" t="inlineStr"/>
@@ -26252,7 +26252,7 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>3000009102</v>
+        <v>3000009100</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -26271,12 +26271,12 @@
       </c>
       <c r="G547" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H547" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I547" t="inlineStr"/>
@@ -26297,7 +26297,7 @@
         </is>
       </c>
       <c r="C548" t="n">
-        <v>3000009102</v>
+        <v>3000009100</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -26316,12 +26316,12 @@
       </c>
       <c r="G548" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H548" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I548" t="inlineStr"/>
@@ -26342,7 +26342,7 @@
         </is>
       </c>
       <c r="C549" t="n">
-        <v>3000009102</v>
+        <v>3000009100</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -26361,12 +26361,12 @@
       </c>
       <c r="G549" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H549" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I549" t="inlineStr"/>
@@ -26387,7 +26387,7 @@
         </is>
       </c>
       <c r="C550" t="n">
-        <v>3000009102</v>
+        <v>3000009100</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -26406,12 +26406,12 @@
       </c>
       <c r="G550" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H550" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I550" t="inlineStr"/>
@@ -26432,7 +26432,7 @@
         </is>
       </c>
       <c r="C551" t="n">
-        <v>3000009102</v>
+        <v>3000009100</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -26451,12 +26451,12 @@
       </c>
       <c r="G551" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H551" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I551" t="inlineStr"/>
@@ -26477,7 +26477,7 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>3000009102</v>
+        <v>3000009100</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -26496,12 +26496,12 @@
       </c>
       <c r="G552" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H552" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I552" t="inlineStr"/>
@@ -26522,7 +26522,7 @@
         </is>
       </c>
       <c r="C553" t="n">
-        <v>3000009102</v>
+        <v>3000009100</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -26541,12 +26541,12 @@
       </c>
       <c r="G553" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H553" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I553" t="inlineStr"/>
@@ -26567,7 +26567,7 @@
         </is>
       </c>
       <c r="C554" t="n">
-        <v>3000009102</v>
+        <v>3000009100</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -26586,12 +26586,12 @@
       </c>
       <c r="G554" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H554" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I554" t="inlineStr"/>
@@ -26612,7 +26612,7 @@
         </is>
       </c>
       <c r="C555" t="n">
-        <v>3000009102</v>
+        <v>3000009100</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -26631,12 +26631,12 @@
       </c>
       <c r="G555" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H555" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I555" t="inlineStr"/>
@@ -26657,7 +26657,7 @@
         </is>
       </c>
       <c r="C556" t="n">
-        <v>3000009102</v>
+        <v>3000009100</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -26676,12 +26676,12 @@
       </c>
       <c r="G556" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H556" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I556" t="inlineStr"/>
@@ -26702,7 +26702,7 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>3000009102</v>
+        <v>3000009100</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -26721,12 +26721,12 @@
       </c>
       <c r="G557" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H557" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I557" t="inlineStr"/>
@@ -26747,7 +26747,7 @@
         </is>
       </c>
       <c r="C558" t="n">
-        <v>3000009102</v>
+        <v>3000009100</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -26766,12 +26766,12 @@
       </c>
       <c r="G558" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H558" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I558" t="inlineStr"/>
@@ -26792,7 +26792,7 @@
         </is>
       </c>
       <c r="C559" t="n">
-        <v>3000009102</v>
+        <v>3000009100</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -26811,12 +26811,12 @@
       </c>
       <c r="G559" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H559" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I559" t="inlineStr"/>
@@ -26837,7 +26837,7 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>3000009102</v>
+        <v>3000009100</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -26856,12 +26856,12 @@
       </c>
       <c r="G560" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H560" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I560" t="inlineStr"/>
@@ -26882,7 +26882,7 @@
         </is>
       </c>
       <c r="C561" t="n">
-        <v>3000009102</v>
+        <v>3000009100</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -26901,12 +26901,12 @@
       </c>
       <c r="G561" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H561" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I561" t="inlineStr"/>
@@ -26927,7 +26927,7 @@
         </is>
       </c>
       <c r="C562" t="n">
-        <v>3000009102</v>
+        <v>3000009100</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -26946,12 +26946,12 @@
       </c>
       <c r="G562" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H562" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I562" t="inlineStr"/>
@@ -26972,7 +26972,7 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>3000009102</v>
+        <v>3000009100</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -26991,12 +26991,12 @@
       </c>
       <c r="G563" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H563" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I563" t="inlineStr"/>
@@ -27017,7 +27017,7 @@
         </is>
       </c>
       <c r="C564" t="n">
-        <v>3000009102</v>
+        <v>3000009100</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -27036,12 +27036,12 @@
       </c>
       <c r="G564" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H564" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I564" t="inlineStr"/>
@@ -27062,7 +27062,7 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>3000009102</v>
+        <v>3000009100</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -27081,12 +27081,12 @@
       </c>
       <c r="G565" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H565" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I565" t="inlineStr"/>
@@ -27107,7 +27107,7 @@
         </is>
       </c>
       <c r="C566" t="n">
-        <v>3000009102</v>
+        <v>3000009100</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -27126,12 +27126,12 @@
       </c>
       <c r="G566" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H566" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I566" t="inlineStr"/>
@@ -27152,7 +27152,7 @@
         </is>
       </c>
       <c r="C567" t="n">
-        <v>3000009102</v>
+        <v>3000009100</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -27171,12 +27171,12 @@
       </c>
       <c r="G567" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H567" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I567" t="inlineStr"/>
@@ -27197,7 +27197,7 @@
         </is>
       </c>
       <c r="C568" t="n">
-        <v>3000009102</v>
+        <v>3000009100</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -27216,12 +27216,12 @@
       </c>
       <c r="G568" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H568" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I568" t="inlineStr"/>
@@ -27242,7 +27242,7 @@
         </is>
       </c>
       <c r="C569" t="n">
-        <v>3000009102</v>
+        <v>3000009100</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -27261,12 +27261,12 @@
       </c>
       <c r="G569" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H569" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I569" t="inlineStr"/>
@@ -27287,7 +27287,7 @@
         </is>
       </c>
       <c r="C570" t="n">
-        <v>3000009102</v>
+        <v>3000009100</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -27306,12 +27306,12 @@
       </c>
       <c r="G570" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H570" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I570" t="inlineStr"/>
@@ -27332,7 +27332,7 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>3000009102</v>
+        <v>3000009100</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -27351,12 +27351,12 @@
       </c>
       <c r="G571" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H571" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I571" t="inlineStr"/>
@@ -27377,7 +27377,7 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>3000009102</v>
+        <v>3000009100</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -27396,12 +27396,12 @@
       </c>
       <c r="G572" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H572" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I572" t="inlineStr"/>
@@ -27422,7 +27422,7 @@
         </is>
       </c>
       <c r="C573" t="n">
-        <v>3000009102</v>
+        <v>3000009100</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -27441,12 +27441,12 @@
       </c>
       <c r="G573" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H573" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I573" t="inlineStr"/>
@@ -27467,7 +27467,7 @@
         </is>
       </c>
       <c r="C574" t="n">
-        <v>3000009102</v>
+        <v>3000009100</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -27486,12 +27486,12 @@
       </c>
       <c r="G574" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H574" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I574" t="inlineStr"/>
@@ -27512,7 +27512,7 @@
         </is>
       </c>
       <c r="C575" t="n">
-        <v>3000009102</v>
+        <v>3000009100</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -27531,12 +27531,12 @@
       </c>
       <c r="G575" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H575" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I575" t="inlineStr"/>
@@ -27557,7 +27557,7 @@
         </is>
       </c>
       <c r="C576" t="n">
-        <v>3000009102</v>
+        <v>3000009100</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -27576,12 +27576,12 @@
       </c>
       <c r="G576" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H576" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I576" t="inlineStr"/>
@@ -27602,7 +27602,7 @@
         </is>
       </c>
       <c r="C577" t="n">
-        <v>3000009102</v>
+        <v>3000009100</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -27621,12 +27621,12 @@
       </c>
       <c r="G577" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H577" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I577" t="inlineStr"/>
@@ -27647,7 +27647,7 @@
         </is>
       </c>
       <c r="C578" t="n">
-        <v>3000009102</v>
+        <v>3000009100</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -27666,12 +27666,12 @@
       </c>
       <c r="G578" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H578" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I578" t="inlineStr"/>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="C579" t="n">
-        <v>3000009102</v>
+        <v>3000009100</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -27711,12 +27711,12 @@
       </c>
       <c r="G579" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H579" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I579" t="inlineStr"/>
@@ -27737,7 +27737,7 @@
         </is>
       </c>
       <c r="C580" t="n">
-        <v>3000009102</v>
+        <v>3000009100</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -27756,12 +27756,12 @@
       </c>
       <c r="G580" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H580" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I580" t="inlineStr"/>
@@ -27782,7 +27782,7 @@
         </is>
       </c>
       <c r="C581" t="n">
-        <v>3000009102</v>
+        <v>3000009100</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -27801,12 +27801,12 @@
       </c>
       <c r="G581" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H581" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I581" t="inlineStr"/>
@@ -27827,7 +27827,7 @@
         </is>
       </c>
       <c r="C582" t="n">
-        <v>3000009102</v>
+        <v>3000009100</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -27846,12 +27846,12 @@
       </c>
       <c r="G582" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H582" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I582" t="inlineStr"/>
@@ -27872,7 +27872,7 @@
         </is>
       </c>
       <c r="C583" t="n">
-        <v>3000009102</v>
+        <v>3000009100</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -27891,12 +27891,12 @@
       </c>
       <c r="G583" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H583" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I583" t="inlineStr"/>
@@ -27917,7 +27917,7 @@
         </is>
       </c>
       <c r="C584" t="n">
-        <v>3000009102</v>
+        <v>3000009100</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -27936,12 +27936,12 @@
       </c>
       <c r="G584" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H584" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I584" t="inlineStr"/>
@@ -27962,7 +27962,7 @@
         </is>
       </c>
       <c r="C585" t="n">
-        <v>3000009102</v>
+        <v>3000009100</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -27981,12 +27981,12 @@
       </c>
       <c r="G585" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H585" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I585" t="inlineStr"/>
@@ -28007,7 +28007,7 @@
         </is>
       </c>
       <c r="C586" t="n">
-        <v>3000009102</v>
+        <v>3000009100</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -28026,12 +28026,12 @@
       </c>
       <c r="G586" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H586" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I586" t="inlineStr"/>
@@ -28052,7 +28052,7 @@
         </is>
       </c>
       <c r="C587" t="n">
-        <v>3000009102</v>
+        <v>3000009100</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -28071,12 +28071,12 @@
       </c>
       <c r="G587" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H587" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I587" t="inlineStr"/>
@@ -28097,7 +28097,7 @@
         </is>
       </c>
       <c r="C588" t="n">
-        <v>3000009102</v>
+        <v>3000009100</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -28116,12 +28116,12 @@
       </c>
       <c r="G588" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H588" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I588" t="inlineStr"/>
@@ -28142,7 +28142,7 @@
         </is>
       </c>
       <c r="C589" t="n">
-        <v>3000009102</v>
+        <v>3000009100</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -28161,12 +28161,12 @@
       </c>
       <c r="G589" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H589" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I589" t="inlineStr"/>
@@ -28187,7 +28187,7 @@
         </is>
       </c>
       <c r="C590" t="n">
-        <v>3000009102</v>
+        <v>3000009100</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -28206,12 +28206,12 @@
       </c>
       <c r="G590" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H590" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I590" t="inlineStr"/>
@@ -28232,7 +28232,7 @@
         </is>
       </c>
       <c r="C591" t="n">
-        <v>3000009102</v>
+        <v>3000009100</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -28251,12 +28251,12 @@
       </c>
       <c r="G591" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H591" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I591" t="inlineStr"/>
@@ -28277,7 +28277,7 @@
         </is>
       </c>
       <c r="C592" t="n">
-        <v>3000009102</v>
+        <v>3000009100</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -28296,12 +28296,12 @@
       </c>
       <c r="G592" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H592" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I592" t="inlineStr"/>
@@ -28322,7 +28322,7 @@
         </is>
       </c>
       <c r="C593" t="n">
-        <v>3000009102</v>
+        <v>3000009100</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -28341,12 +28341,12 @@
       </c>
       <c r="G593" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H593" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I593" t="inlineStr"/>
@@ -28367,7 +28367,7 @@
         </is>
       </c>
       <c r="C594" t="n">
-        <v>3000009102</v>
+        <v>3000009100</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -28386,12 +28386,12 @@
       </c>
       <c r="G594" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H594" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I594" t="inlineStr"/>
@@ -28412,7 +28412,7 @@
         </is>
       </c>
       <c r="C595" t="n">
-        <v>3000009102</v>
+        <v>3000009100</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -28431,12 +28431,12 @@
       </c>
       <c r="G595" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H595" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I595" t="inlineStr"/>
@@ -28457,7 +28457,7 @@
         </is>
       </c>
       <c r="C596" t="n">
-        <v>3000009102</v>
+        <v>3000009100</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -28476,12 +28476,12 @@
       </c>
       <c r="G596" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H596" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I596" t="inlineStr"/>
@@ -28502,7 +28502,7 @@
         </is>
       </c>
       <c r="C597" t="n">
-        <v>3000009102</v>
+        <v>3000009100</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -28521,12 +28521,12 @@
       </c>
       <c r="G597" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H597" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I597" t="inlineStr"/>
@@ -28547,7 +28547,7 @@
         </is>
       </c>
       <c r="C598" t="n">
-        <v>3000009102</v>
+        <v>3000009100</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -28566,12 +28566,12 @@
       </c>
       <c r="G598" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H598" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I598" t="inlineStr"/>
@@ -28592,7 +28592,7 @@
         </is>
       </c>
       <c r="C599" t="n">
-        <v>3000009102</v>
+        <v>3000009100</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -28611,12 +28611,12 @@
       </c>
       <c r="G599" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H599" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I599" t="inlineStr"/>
@@ -28637,7 +28637,7 @@
         </is>
       </c>
       <c r="C600" t="n">
-        <v>3000009102</v>
+        <v>3000009100</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -28656,12 +28656,12 @@
       </c>
       <c r="G600" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H600" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I600" t="inlineStr"/>
@@ -28682,7 +28682,7 @@
         </is>
       </c>
       <c r="C601" t="n">
-        <v>3000009102</v>
+        <v>3000009100</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -28701,12 +28701,12 @@
       </c>
       <c r="G601" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H601" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I601" t="inlineStr"/>
@@ -28727,7 +28727,7 @@
         </is>
       </c>
       <c r="C602" t="n">
-        <v>3000009102</v>
+        <v>3000009100</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -28746,12 +28746,12 @@
       </c>
       <c r="G602" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H602" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I602" t="inlineStr"/>
@@ -28772,7 +28772,7 @@
         </is>
       </c>
       <c r="C603" t="n">
-        <v>3000009102</v>
+        <v>3000009100</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -28791,12 +28791,12 @@
       </c>
       <c r="G603" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H603" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I603" t="inlineStr"/>
@@ -28817,7 +28817,7 @@
         </is>
       </c>
       <c r="C604" t="n">
-        <v>3000009102</v>
+        <v>3000009100</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -28836,12 +28836,12 @@
       </c>
       <c r="G604" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H604" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I604" t="inlineStr"/>
@@ -28862,7 +28862,7 @@
         </is>
       </c>
       <c r="C605" t="n">
-        <v>3000009102</v>
+        <v>3000009100</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -28881,12 +28881,12 @@
       </c>
       <c r="G605" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H605" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I605" t="inlineStr"/>
@@ -28907,7 +28907,7 @@
         </is>
       </c>
       <c r="C606" t="n">
-        <v>3000009108</v>
+        <v>3000009106</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -28926,12 +28926,12 @@
       </c>
       <c r="G606" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H606" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I606" t="inlineStr">
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="C607" t="n">
-        <v>3000009108</v>
+        <v>3000009106</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -28975,12 +28975,12 @@
       </c>
       <c r="G607" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H607" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I607" t="inlineStr">
@@ -29005,7 +29005,7 @@
         </is>
       </c>
       <c r="C608" t="n">
-        <v>3000009108</v>
+        <v>3000009106</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -29024,12 +29024,12 @@
       </c>
       <c r="G608" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H608" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I608" t="inlineStr">
@@ -29054,7 +29054,7 @@
         </is>
       </c>
       <c r="C609" t="n">
-        <v>3000009108</v>
+        <v>3000009106</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -29073,12 +29073,12 @@
       </c>
       <c r="G609" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H609" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I609" t="inlineStr">
@@ -29103,7 +29103,7 @@
         </is>
       </c>
       <c r="C610" t="n">
-        <v>3000009108</v>
+        <v>3000009106</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -29122,12 +29122,12 @@
       </c>
       <c r="G610" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H610" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I610" t="inlineStr">
@@ -29152,7 +29152,7 @@
         </is>
       </c>
       <c r="C611" t="n">
-        <v>3000009108</v>
+        <v>3000009106</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -29171,12 +29171,12 @@
       </c>
       <c r="G611" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>10T</t>
         </is>
       </c>
       <c r="H611" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="I611" t="inlineStr">
@@ -29220,12 +29220,12 @@
       </c>
       <c r="G612" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>20T</t>
         </is>
       </c>
       <c r="H612" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>12M</t>
         </is>
       </c>
       <c r="I612" t="inlineStr">
@@ -29269,12 +29269,12 @@
       </c>
       <c r="G613" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>20T</t>
         </is>
       </c>
       <c r="H613" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>12M</t>
         </is>
       </c>
       <c r="I613" t="inlineStr">
@@ -29318,12 +29318,12 @@
       </c>
       <c r="G614" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>20T</t>
         </is>
       </c>
       <c r="H614" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>12M</t>
         </is>
       </c>
       <c r="I614" t="inlineStr">
@@ -29367,12 +29367,12 @@
       </c>
       <c r="G615" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>20T</t>
         </is>
       </c>
       <c r="H615" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>12M</t>
         </is>
       </c>
       <c r="I615" t="inlineStr">
@@ -29416,12 +29416,12 @@
       </c>
       <c r="G616" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>20T</t>
         </is>
       </c>
       <c r="H616" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>12M</t>
         </is>
       </c>
       <c r="I616" t="inlineStr">
@@ -29465,12 +29465,12 @@
       </c>
       <c r="G617" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>20T</t>
         </is>
       </c>
       <c r="H617" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>12M</t>
         </is>
       </c>
       <c r="I617" t="inlineStr">
@@ -29514,12 +29514,12 @@
       </c>
       <c r="G618" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>20T</t>
         </is>
       </c>
       <c r="H618" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>13.5M</t>
         </is>
       </c>
       <c r="I618" t="inlineStr"/>
@@ -29559,12 +29559,12 @@
       </c>
       <c r="G619" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>20T</t>
         </is>
       </c>
       <c r="H619" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>13.5M</t>
         </is>
       </c>
       <c r="I619" t="inlineStr"/>
@@ -29604,12 +29604,12 @@
       </c>
       <c r="G620" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>20T</t>
         </is>
       </c>
       <c r="H620" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>13.5M</t>
         </is>
       </c>
       <c r="I620" t="inlineStr"/>
@@ -29649,12 +29649,12 @@
       </c>
       <c r="G621" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>20T</t>
         </is>
       </c>
       <c r="H621" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>13.5M</t>
         </is>
       </c>
       <c r="I621" t="inlineStr"/>
@@ -29694,12 +29694,12 @@
       </c>
       <c r="G622" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>20T</t>
         </is>
       </c>
       <c r="H622" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>13.5M</t>
         </is>
       </c>
       <c r="I622" t="inlineStr"/>
@@ -29739,12 +29739,12 @@
       </c>
       <c r="G623" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>20T</t>
         </is>
       </c>
       <c r="H623" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>13.5M</t>
         </is>
       </c>
       <c r="I623" t="inlineStr"/>
@@ -29784,12 +29784,12 @@
       </c>
       <c r="G624" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>20T</t>
         </is>
       </c>
       <c r="H624" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>13.5M</t>
         </is>
       </c>
       <c r="I624" t="inlineStr"/>
@@ -29829,12 +29829,12 @@
       </c>
       <c r="G625" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>20T</t>
         </is>
       </c>
       <c r="H625" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>13.5M</t>
         </is>
       </c>
       <c r="I625" t="inlineStr"/>
@@ -29874,12 +29874,12 @@
       </c>
       <c r="G626" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>20T</t>
         </is>
       </c>
       <c r="H626" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>13.5M</t>
         </is>
       </c>
       <c r="I626" t="inlineStr"/>
@@ -29919,12 +29919,12 @@
       </c>
       <c r="G627" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>20T</t>
         </is>
       </c>
       <c r="H627" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>13.5M</t>
         </is>
       </c>
       <c r="I627" t="inlineStr"/>
@@ -29964,12 +29964,12 @@
       </c>
       <c r="G628" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>20T</t>
         </is>
       </c>
       <c r="H628" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>13.5M</t>
         </is>
       </c>
       <c r="I628" t="inlineStr"/>
@@ -30009,12 +30009,12 @@
       </c>
       <c r="G629" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>20T</t>
         </is>
       </c>
       <c r="H629" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>13.5M</t>
         </is>
       </c>
       <c r="I629" t="inlineStr"/>
@@ -30054,12 +30054,12 @@
       </c>
       <c r="G630" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>20T</t>
         </is>
       </c>
       <c r="H630" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>13.5M</t>
         </is>
       </c>
       <c r="I630" t="inlineStr"/>
@@ -30099,12 +30099,12 @@
       </c>
       <c r="G631" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>20T</t>
         </is>
       </c>
       <c r="H631" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>13.5M</t>
         </is>
       </c>
       <c r="I631" t="inlineStr"/>
@@ -30144,12 +30144,12 @@
       </c>
       <c r="G632" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>20T</t>
         </is>
       </c>
       <c r="H632" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>13.5M</t>
         </is>
       </c>
       <c r="I632" t="inlineStr"/>
@@ -30189,12 +30189,12 @@
       </c>
       <c r="G633" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>20T</t>
         </is>
       </c>
       <c r="H633" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>13.5M</t>
         </is>
       </c>
       <c r="I633" t="inlineStr"/>
@@ -30234,12 +30234,12 @@
       </c>
       <c r="G634" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>20T</t>
         </is>
       </c>
       <c r="H634" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>13.5M</t>
         </is>
       </c>
       <c r="I634" t="inlineStr"/>
@@ -30279,12 +30279,12 @@
       </c>
       <c r="G635" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>20T</t>
         </is>
       </c>
       <c r="H635" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>13.5M</t>
         </is>
       </c>
       <c r="I635" t="inlineStr"/>
@@ -30324,12 +30324,12 @@
       </c>
       <c r="G636" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>20T</t>
         </is>
       </c>
       <c r="H636" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>13.5M</t>
         </is>
       </c>
       <c r="I636" t="inlineStr"/>
@@ -30369,12 +30369,12 @@
       </c>
       <c r="G637" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>20T</t>
         </is>
       </c>
       <c r="H637" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>13.5M</t>
         </is>
       </c>
       <c r="I637" t="inlineStr"/>
@@ -30414,12 +30414,12 @@
       </c>
       <c r="G638" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>20T</t>
         </is>
       </c>
       <c r="H638" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>13.5M</t>
         </is>
       </c>
       <c r="I638" t="inlineStr"/>
@@ -30459,12 +30459,12 @@
       </c>
       <c r="G639" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>20T</t>
         </is>
       </c>
       <c r="H639" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>13.5M</t>
         </is>
       </c>
       <c r="I639" t="inlineStr"/>
@@ -30504,12 +30504,12 @@
       </c>
       <c r="G640" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>20T</t>
         </is>
       </c>
       <c r="H640" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>13.5M</t>
         </is>
       </c>
       <c r="I640" t="inlineStr"/>
@@ -30549,12 +30549,12 @@
       </c>
       <c r="G641" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>20T</t>
         </is>
       </c>
       <c r="H641" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>13.5M</t>
         </is>
       </c>
       <c r="I641" t="inlineStr"/>
@@ -30594,12 +30594,12 @@
       </c>
       <c r="G642" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>20T</t>
         </is>
       </c>
       <c r="H642" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>13.5M</t>
         </is>
       </c>
       <c r="I642" t="inlineStr"/>
@@ -30639,12 +30639,12 @@
       </c>
       <c r="G643" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>20T</t>
         </is>
       </c>
       <c r="H643" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>13.5M</t>
         </is>
       </c>
       <c r="I643" t="inlineStr"/>
@@ -30684,12 +30684,12 @@
       </c>
       <c r="G644" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>20T</t>
         </is>
       </c>
       <c r="H644" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>13.5M</t>
         </is>
       </c>
       <c r="I644" t="inlineStr"/>
@@ -30729,12 +30729,12 @@
       </c>
       <c r="G645" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>20T</t>
         </is>
       </c>
       <c r="H645" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>13.5M</t>
         </is>
       </c>
       <c r="I645" t="inlineStr"/>
@@ -30774,12 +30774,12 @@
       </c>
       <c r="G646" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>20T</t>
         </is>
       </c>
       <c r="H646" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>13.5M</t>
         </is>
       </c>
       <c r="I646" t="inlineStr"/>
@@ -30819,12 +30819,12 @@
       </c>
       <c r="G647" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>20T</t>
         </is>
       </c>
       <c r="H647" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>13.5M</t>
         </is>
       </c>
       <c r="I647" t="inlineStr"/>
@@ -30864,12 +30864,12 @@
       </c>
       <c r="G648" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>20T</t>
         </is>
       </c>
       <c r="H648" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>13.5M</t>
         </is>
       </c>
       <c r="I648" t="inlineStr"/>
@@ -30909,12 +30909,12 @@
       </c>
       <c r="G649" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>20T</t>
         </is>
       </c>
       <c r="H649" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>13.5M</t>
         </is>
       </c>
       <c r="I649" t="inlineStr"/>
@@ -30954,12 +30954,12 @@
       </c>
       <c r="G650" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>20T</t>
         </is>
       </c>
       <c r="H650" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>13.5M</t>
         </is>
       </c>
       <c r="I650" t="inlineStr"/>
@@ -30999,12 +30999,12 @@
       </c>
       <c r="G651" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>20T</t>
         </is>
       </c>
       <c r="H651" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>13.5M</t>
         </is>
       </c>
       <c r="I651" t="inlineStr"/>
@@ -31044,12 +31044,12 @@
       </c>
       <c r="G652" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>20T</t>
         </is>
       </c>
       <c r="H652" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>13.5M</t>
         </is>
       </c>
       <c r="I652" t="inlineStr"/>
@@ -31089,12 +31089,12 @@
       </c>
       <c r="G653" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>20T</t>
         </is>
       </c>
       <c r="H653" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>13.5M</t>
         </is>
       </c>
       <c r="I653" t="inlineStr"/>
@@ -31134,12 +31134,12 @@
       </c>
       <c r="G654" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>20T</t>
         </is>
       </c>
       <c r="H654" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>13.5M</t>
         </is>
       </c>
       <c r="I654" t="inlineStr"/>
@@ -31179,12 +31179,12 @@
       </c>
       <c r="G655" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>20T</t>
         </is>
       </c>
       <c r="H655" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>13.5M</t>
         </is>
       </c>
       <c r="I655" t="inlineStr"/>
@@ -31224,12 +31224,12 @@
       </c>
       <c r="G656" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>20T</t>
         </is>
       </c>
       <c r="H656" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>13.5M</t>
         </is>
       </c>
       <c r="I656" t="inlineStr"/>
@@ -31269,12 +31269,12 @@
       </c>
       <c r="G657" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>20T</t>
         </is>
       </c>
       <c r="H657" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>13.5M</t>
         </is>
       </c>
       <c r="I657" t="inlineStr"/>
@@ -31314,12 +31314,12 @@
       </c>
       <c r="G658" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>20T</t>
         </is>
       </c>
       <c r="H658" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>13.5M</t>
         </is>
       </c>
       <c r="I658" t="inlineStr"/>
@@ -31359,12 +31359,12 @@
       </c>
       <c r="G659" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>20T</t>
         </is>
       </c>
       <c r="H659" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>13.5M</t>
         </is>
       </c>
       <c r="I659" t="inlineStr"/>
@@ -31404,12 +31404,12 @@
       </c>
       <c r="G660" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>20T</t>
         </is>
       </c>
       <c r="H660" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>13.5M</t>
         </is>
       </c>
       <c r="I660" t="inlineStr"/>
@@ -31449,12 +31449,12 @@
       </c>
       <c r="G661" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>20T</t>
         </is>
       </c>
       <c r="H661" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>13.5M</t>
         </is>
       </c>
       <c r="I661" t="inlineStr"/>
@@ -31494,12 +31494,12 @@
       </c>
       <c r="G662" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>20T</t>
         </is>
       </c>
       <c r="H662" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>13.5M</t>
         </is>
       </c>
       <c r="I662" t="inlineStr"/>
@@ -31539,12 +31539,12 @@
       </c>
       <c r="G663" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>20T</t>
         </is>
       </c>
       <c r="H663" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>13.5M</t>
         </is>
       </c>
       <c r="I663" t="inlineStr"/>
@@ -31584,12 +31584,12 @@
       </c>
       <c r="G664" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>20T</t>
         </is>
       </c>
       <c r="H664" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>13.5M</t>
         </is>
       </c>
       <c r="I664" t="inlineStr"/>
@@ -31629,12 +31629,12 @@
       </c>
       <c r="G665" t="inlineStr">
         <is>
-          <t>20.0T</t>
+          <t>20T</t>
         </is>
       </c>
       <c r="H665" t="inlineStr">
         <is>
-          <t>12.0M</t>
+          <t>13.5M</t>
         </is>
       </c>
       <c r="I665" t="inlineStr"/>
@@ -31655,16 +31655,16 @@
         </is>
       </c>
       <c r="C666" t="n">
-        <v>3000005470</v>
+        <v>3000009099</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
-          <t>TZRU00-0050</t>
+          <t>TZRU63-0001</t>
         </is>
       </c>
       <c r="E666" t="inlineStr">
         <is>
-          <t>TZRU63-0001</t>
+          <t>TZRU63-0002</t>
         </is>
       </c>
       <c r="F666" t="inlineStr">
@@ -31674,26 +31674,18 @@
       </c>
       <c r="G666" t="inlineStr">
         <is>
-          <t>3.5T</t>
+          <t>5T</t>
         </is>
       </c>
       <c r="H666" t="inlineStr">
         <is>
-          <t>6.0M</t>
-        </is>
-      </c>
-      <c r="I666" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J666" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5.5M</t>
+        </is>
+      </c>
+      <c r="I666" t="inlineStr"/>
+      <c r="J666" t="inlineStr"/>
       <c r="K666" t="n">
-        <v>10</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="667">
@@ -31708,16 +31700,16 @@
         </is>
       </c>
       <c r="C667" t="n">
-        <v>3000005470</v>
+        <v>3000009099</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
-          <t>TZRU00-0050</t>
+          <t>TZRU63-0001</t>
         </is>
       </c>
       <c r="E667" t="inlineStr">
         <is>
-          <t>TZRU63-0001</t>
+          <t>TZRU63-0002</t>
         </is>
       </c>
       <c r="F667" t="inlineStr">
@@ -31727,26 +31719,18 @@
       </c>
       <c r="G667" t="inlineStr">
         <is>
-          <t>3.5T</t>
+          <t>5T</t>
         </is>
       </c>
       <c r="H667" t="inlineStr">
         <is>
-          <t>6.0M</t>
-        </is>
-      </c>
-      <c r="I667" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J667" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5.5M</t>
+        </is>
+      </c>
+      <c r="I667" t="inlineStr"/>
+      <c r="J667" t="inlineStr"/>
       <c r="K667" t="n">
-        <v>10</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="668">
@@ -31761,16 +31745,16 @@
         </is>
       </c>
       <c r="C668" t="n">
-        <v>3000005470</v>
+        <v>3000009099</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
-          <t>TZRU00-0070</t>
+          <t>TZRU63-0001</t>
         </is>
       </c>
       <c r="E668" t="inlineStr">
         <is>
-          <t>TZRU63-0001</t>
+          <t>TZRU63-0003</t>
         </is>
       </c>
       <c r="F668" t="inlineStr">
@@ -31780,26 +31764,18 @@
       </c>
       <c r="G668" t="inlineStr">
         <is>
-          <t>3.5T</t>
+          <t>5T</t>
         </is>
       </c>
       <c r="H668" t="inlineStr">
         <is>
-          <t>6.0M</t>
-        </is>
-      </c>
-      <c r="I668" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J668" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5.5M</t>
+        </is>
+      </c>
+      <c r="I668" t="inlineStr"/>
+      <c r="J668" t="inlineStr"/>
       <c r="K668" t="n">
-        <v>10</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="669">
@@ -31814,16 +31790,16 @@
         </is>
       </c>
       <c r="C669" t="n">
-        <v>3000005470</v>
+        <v>3000009099</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
-          <t>TZRU00-0070</t>
+          <t>TZRU63-0001</t>
         </is>
       </c>
       <c r="E669" t="inlineStr">
         <is>
-          <t>TZRU63-0001</t>
+          <t>TZRU63-0003</t>
         </is>
       </c>
       <c r="F669" t="inlineStr">
@@ -31833,26 +31809,18 @@
       </c>
       <c r="G669" t="inlineStr">
         <is>
-          <t>3.5T</t>
+          <t>5T</t>
         </is>
       </c>
       <c r="H669" t="inlineStr">
         <is>
-          <t>6.0M</t>
-        </is>
-      </c>
-      <c r="I669" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J669" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5.5M</t>
+        </is>
+      </c>
+      <c r="I669" t="inlineStr"/>
+      <c r="J669" t="inlineStr"/>
       <c r="K669" t="n">
-        <v>10</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="670">
@@ -31867,7 +31835,7 @@
         </is>
       </c>
       <c r="C670" t="n">
-        <v>3000005470</v>
+        <v>3000009099</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -31876,7 +31844,7 @@
       </c>
       <c r="E670" t="inlineStr">
         <is>
-          <t>TZRU63-0002</t>
+          <t>TZRU63-0004</t>
         </is>
       </c>
       <c r="F670" t="inlineStr">
@@ -31886,26 +31854,18 @@
       </c>
       <c r="G670" t="inlineStr">
         <is>
-          <t>3.5T</t>
+          <t>5T</t>
         </is>
       </c>
       <c r="H670" t="inlineStr">
         <is>
-          <t>6.0M</t>
-        </is>
-      </c>
-      <c r="I670" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J670" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5.5M</t>
+        </is>
+      </c>
+      <c r="I670" t="inlineStr"/>
+      <c r="J670" t="inlineStr"/>
       <c r="K670" t="n">
-        <v>10</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="671">
@@ -31920,7 +31880,7 @@
         </is>
       </c>
       <c r="C671" t="n">
-        <v>3000005470</v>
+        <v>3000009099</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -31929,7 +31889,7 @@
       </c>
       <c r="E671" t="inlineStr">
         <is>
-          <t>TZRU63-0002</t>
+          <t>TZRU63-0004</t>
         </is>
       </c>
       <c r="F671" t="inlineStr">
@@ -31939,26 +31899,18 @@
       </c>
       <c r="G671" t="inlineStr">
         <is>
-          <t>3.5T</t>
+          <t>5T</t>
         </is>
       </c>
       <c r="H671" t="inlineStr">
         <is>
-          <t>6.0M</t>
-        </is>
-      </c>
-      <c r="I671" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J671" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5.5M</t>
+        </is>
+      </c>
+      <c r="I671" t="inlineStr"/>
+      <c r="J671" t="inlineStr"/>
       <c r="K671" t="n">
-        <v>10</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="672">
@@ -31973,7 +31925,7 @@
         </is>
       </c>
       <c r="C672" t="n">
-        <v>3000005470</v>
+        <v>3000009099</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -31982,7 +31934,7 @@
       </c>
       <c r="E672" t="inlineStr">
         <is>
-          <t>TZRU63-0003</t>
+          <t>TZRU63-0020</t>
         </is>
       </c>
       <c r="F672" t="inlineStr">
@@ -31992,26 +31944,18 @@
       </c>
       <c r="G672" t="inlineStr">
         <is>
-          <t>3.5T</t>
+          <t>5T</t>
         </is>
       </c>
       <c r="H672" t="inlineStr">
         <is>
-          <t>6.0M</t>
-        </is>
-      </c>
-      <c r="I672" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J672" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5.5M</t>
+        </is>
+      </c>
+      <c r="I672" t="inlineStr"/>
+      <c r="J672" t="inlineStr"/>
       <c r="K672" t="n">
-        <v>10</v>
+        <v>11500</v>
       </c>
     </row>
     <row r="673">
@@ -32026,7 +31970,7 @@
         </is>
       </c>
       <c r="C673" t="n">
-        <v>3000005470</v>
+        <v>3000009099</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -32035,7 +31979,7 @@
       </c>
       <c r="E673" t="inlineStr">
         <is>
-          <t>TZRU63-0003</t>
+          <t>TZRU63-0020</t>
         </is>
       </c>
       <c r="F673" t="inlineStr">
@@ -32045,26 +31989,18 @@
       </c>
       <c r="G673" t="inlineStr">
         <is>
-          <t>3.5T</t>
+          <t>5T</t>
         </is>
       </c>
       <c r="H673" t="inlineStr">
         <is>
-          <t>6.0M</t>
-        </is>
-      </c>
-      <c r="I673" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J673" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5.5M</t>
+        </is>
+      </c>
+      <c r="I673" t="inlineStr"/>
+      <c r="J673" t="inlineStr"/>
       <c r="K673" t="n">
-        <v>10</v>
+        <v>11500</v>
       </c>
     </row>
     <row r="674">
@@ -32079,7 +32015,7 @@
         </is>
       </c>
       <c r="C674" t="n">
-        <v>3000005470</v>
+        <v>3000009099</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -32088,7 +32024,7 @@
       </c>
       <c r="E674" t="inlineStr">
         <is>
-          <t>TZRU63-0004</t>
+          <t>TZRU63-0060</t>
         </is>
       </c>
       <c r="F674" t="inlineStr">
@@ -32098,26 +32034,18 @@
       </c>
       <c r="G674" t="inlineStr">
         <is>
-          <t>3.5T</t>
+          <t>5T</t>
         </is>
       </c>
       <c r="H674" t="inlineStr">
         <is>
-          <t>6.0M</t>
-        </is>
-      </c>
-      <c r="I674" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J674" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5.5M</t>
+        </is>
+      </c>
+      <c r="I674" t="inlineStr"/>
+      <c r="J674" t="inlineStr"/>
       <c r="K674" t="n">
-        <v>10</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="675">
@@ -32132,7 +32060,7 @@
         </is>
       </c>
       <c r="C675" t="n">
-        <v>3000005470</v>
+        <v>3000009099</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -32141,7 +32069,7 @@
       </c>
       <c r="E675" t="inlineStr">
         <is>
-          <t>TZRU63-0004</t>
+          <t>TZRU63-0060</t>
         </is>
       </c>
       <c r="F675" t="inlineStr">
@@ -32151,26 +32079,18 @@
       </c>
       <c r="G675" t="inlineStr">
         <is>
-          <t>3.5T</t>
+          <t>5T</t>
         </is>
       </c>
       <c r="H675" t="inlineStr">
         <is>
-          <t>6.0M</t>
-        </is>
-      </c>
-      <c r="I675" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J675" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5.5M</t>
+        </is>
+      </c>
+      <c r="I675" t="inlineStr"/>
+      <c r="J675" t="inlineStr"/>
       <c r="K675" t="n">
-        <v>10</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="676">
@@ -32185,7 +32105,7 @@
         </is>
       </c>
       <c r="C676" t="n">
-        <v>3000005470</v>
+        <v>3000009099</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -32194,7 +32114,7 @@
       </c>
       <c r="E676" t="inlineStr">
         <is>
-          <t>TZRU63-0020</t>
+          <t>TZRU63-0070</t>
         </is>
       </c>
       <c r="F676" t="inlineStr">
@@ -32204,26 +32124,18 @@
       </c>
       <c r="G676" t="inlineStr">
         <is>
-          <t>3.5T</t>
+          <t>5T</t>
         </is>
       </c>
       <c r="H676" t="inlineStr">
         <is>
-          <t>6.0M</t>
-        </is>
-      </c>
-      <c r="I676" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J676" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5.5M</t>
+        </is>
+      </c>
+      <c r="I676" t="inlineStr"/>
+      <c r="J676" t="inlineStr"/>
       <c r="K676" t="n">
-        <v>10</v>
+        <v>11500</v>
       </c>
     </row>
     <row r="677">
@@ -32238,7 +32150,7 @@
         </is>
       </c>
       <c r="C677" t="n">
-        <v>3000005470</v>
+        <v>3000009099</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -32247,7 +32159,7 @@
       </c>
       <c r="E677" t="inlineStr">
         <is>
-          <t>TZRU63-0020</t>
+          <t>TZRU63-0070</t>
         </is>
       </c>
       <c r="F677" t="inlineStr">
@@ -32257,26 +32169,18 @@
       </c>
       <c r="G677" t="inlineStr">
         <is>
-          <t>3.5T</t>
+          <t>5T</t>
         </is>
       </c>
       <c r="H677" t="inlineStr">
         <is>
-          <t>6.0M</t>
-        </is>
-      </c>
-      <c r="I677" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J677" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5.5M</t>
+        </is>
+      </c>
+      <c r="I677" t="inlineStr"/>
+      <c r="J677" t="inlineStr"/>
       <c r="K677" t="n">
-        <v>10</v>
+        <v>11500</v>
       </c>
     </row>
     <row r="678">
@@ -32291,7 +32195,7 @@
         </is>
       </c>
       <c r="C678" t="n">
-        <v>3000005470</v>
+        <v>3000009099</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -32300,7 +32204,7 @@
       </c>
       <c r="E678" t="inlineStr">
         <is>
-          <t>TZRU63-0060</t>
+          <t>TZRU63-0080</t>
         </is>
       </c>
       <c r="F678" t="inlineStr">
@@ -32310,26 +32214,18 @@
       </c>
       <c r="G678" t="inlineStr">
         <is>
-          <t>3.5T</t>
+          <t>5T</t>
         </is>
       </c>
       <c r="H678" t="inlineStr">
         <is>
-          <t>6.0M</t>
-        </is>
-      </c>
-      <c r="I678" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J678" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5.5M</t>
+        </is>
+      </c>
+      <c r="I678" t="inlineStr"/>
+      <c r="J678" t="inlineStr"/>
       <c r="K678" t="n">
-        <v>10</v>
+        <v>11500</v>
       </c>
     </row>
     <row r="679">
@@ -32344,7 +32240,7 @@
         </is>
       </c>
       <c r="C679" t="n">
-        <v>3000005470</v>
+        <v>3000009099</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -32353,7 +32249,7 @@
       </c>
       <c r="E679" t="inlineStr">
         <is>
-          <t>TZRU63-0060</t>
+          <t>TZRU63-0080</t>
         </is>
       </c>
       <c r="F679" t="inlineStr">
@@ -32363,26 +32259,18 @@
       </c>
       <c r="G679" t="inlineStr">
         <is>
-          <t>3.5T</t>
+          <t>5T</t>
         </is>
       </c>
       <c r="H679" t="inlineStr">
         <is>
-          <t>6.0M</t>
-        </is>
-      </c>
-      <c r="I679" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J679" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5.5M</t>
+        </is>
+      </c>
+      <c r="I679" t="inlineStr"/>
+      <c r="J679" t="inlineStr"/>
       <c r="K679" t="n">
-        <v>10</v>
+        <v>11500</v>
       </c>
     </row>
     <row r="680">
@@ -32397,7 +32285,7 @@
         </is>
       </c>
       <c r="C680" t="n">
-        <v>3000005470</v>
+        <v>3000009099</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -32406,7 +32294,7 @@
       </c>
       <c r="E680" t="inlineStr">
         <is>
-          <t>TZRU63-0070</t>
+          <t>TZRU63-0090</t>
         </is>
       </c>
       <c r="F680" t="inlineStr">
@@ -32416,26 +32304,18 @@
       </c>
       <c r="G680" t="inlineStr">
         <is>
-          <t>3.5T</t>
+          <t>5T</t>
         </is>
       </c>
       <c r="H680" t="inlineStr">
         <is>
-          <t>6.0M</t>
-        </is>
-      </c>
-      <c r="I680" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J680" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5.5M</t>
+        </is>
+      </c>
+      <c r="I680" t="inlineStr"/>
+      <c r="J680" t="inlineStr"/>
       <c r="K680" t="n">
-        <v>10</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="681">
@@ -32450,7 +32330,7 @@
         </is>
       </c>
       <c r="C681" t="n">
-        <v>3000005470</v>
+        <v>3000009099</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -32459,7 +32339,7 @@
       </c>
       <c r="E681" t="inlineStr">
         <is>
-          <t>TZRU63-0070</t>
+          <t>TZRU63-0090</t>
         </is>
       </c>
       <c r="F681" t="inlineStr">
@@ -32469,26 +32349,18 @@
       </c>
       <c r="G681" t="inlineStr">
         <is>
-          <t>3.5T</t>
+          <t>5T</t>
         </is>
       </c>
       <c r="H681" t="inlineStr">
         <is>
-          <t>6.0M</t>
-        </is>
-      </c>
-      <c r="I681" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J681" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5.5M</t>
+        </is>
+      </c>
+      <c r="I681" t="inlineStr"/>
+      <c r="J681" t="inlineStr"/>
       <c r="K681" t="n">
-        <v>10</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="682">
@@ -32503,7 +32375,7 @@
         </is>
       </c>
       <c r="C682" t="n">
-        <v>3000005470</v>
+        <v>3000009099</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -32512,7 +32384,7 @@
       </c>
       <c r="E682" t="inlineStr">
         <is>
-          <t>TZRU63-0080</t>
+          <t>TZRU63-0100</t>
         </is>
       </c>
       <c r="F682" t="inlineStr">
@@ -32522,26 +32394,18 @@
       </c>
       <c r="G682" t="inlineStr">
         <is>
-          <t>3.5T</t>
+          <t>5T</t>
         </is>
       </c>
       <c r="H682" t="inlineStr">
         <is>
-          <t>6.0M</t>
-        </is>
-      </c>
-      <c r="I682" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J682" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5.5M</t>
+        </is>
+      </c>
+      <c r="I682" t="inlineStr"/>
+      <c r="J682" t="inlineStr"/>
       <c r="K682" t="n">
-        <v>10</v>
+        <v>22800</v>
       </c>
     </row>
     <row r="683">
@@ -32556,7 +32420,7 @@
         </is>
       </c>
       <c r="C683" t="n">
-        <v>3000005470</v>
+        <v>3000009099</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -32565,7 +32429,7 @@
       </c>
       <c r="E683" t="inlineStr">
         <is>
-          <t>TZRU63-0080</t>
+          <t>TZRU63-0100</t>
         </is>
       </c>
       <c r="F683" t="inlineStr">
@@ -32575,26 +32439,18 @@
       </c>
       <c r="G683" t="inlineStr">
         <is>
-          <t>3.5T</t>
+          <t>5T</t>
         </is>
       </c>
       <c r="H683" t="inlineStr">
         <is>
-          <t>6.0M</t>
-        </is>
-      </c>
-      <c r="I683" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J683" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5.5M</t>
+        </is>
+      </c>
+      <c r="I683" t="inlineStr"/>
+      <c r="J683" t="inlineStr"/>
       <c r="K683" t="n">
-        <v>10</v>
+        <v>22800</v>
       </c>
     </row>
     <row r="684">
@@ -32609,7 +32465,7 @@
         </is>
       </c>
       <c r="C684" t="n">
-        <v>3000005470</v>
+        <v>3000009099</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -32618,7 +32474,7 @@
       </c>
       <c r="E684" t="inlineStr">
         <is>
-          <t>TZRU63-0090</t>
+          <t>TZRU63-0110</t>
         </is>
       </c>
       <c r="F684" t="inlineStr">
@@ -32628,26 +32484,18 @@
       </c>
       <c r="G684" t="inlineStr">
         <is>
-          <t>3.5T</t>
+          <t>5T</t>
         </is>
       </c>
       <c r="H684" t="inlineStr">
         <is>
-          <t>6.0M</t>
-        </is>
-      </c>
-      <c r="I684" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J684" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5.5M</t>
+        </is>
+      </c>
+      <c r="I684" t="inlineStr"/>
+      <c r="J684" t="inlineStr"/>
       <c r="K684" t="n">
-        <v>10</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="685">
@@ -32662,7 +32510,7 @@
         </is>
       </c>
       <c r="C685" t="n">
-        <v>3000005470</v>
+        <v>3000009099</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -32671,7 +32519,7 @@
       </c>
       <c r="E685" t="inlineStr">
         <is>
-          <t>TZRU63-0090</t>
+          <t>TZRU63-0110</t>
         </is>
       </c>
       <c r="F685" t="inlineStr">
@@ -32681,26 +32529,18 @@
       </c>
       <c r="G685" t="inlineStr">
         <is>
-          <t>3.5T</t>
+          <t>5T</t>
         </is>
       </c>
       <c r="H685" t="inlineStr">
         <is>
-          <t>6.0M</t>
-        </is>
-      </c>
-      <c r="I685" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J685" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5.5M</t>
+        </is>
+      </c>
+      <c r="I685" t="inlineStr"/>
+      <c r="J685" t="inlineStr"/>
       <c r="K685" t="n">
-        <v>10</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="686">
@@ -32715,7 +32555,7 @@
         </is>
       </c>
       <c r="C686" t="n">
-        <v>3000005470</v>
+        <v>3000009099</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -32724,7 +32564,7 @@
       </c>
       <c r="E686" t="inlineStr">
         <is>
-          <t>TZRU63-0100</t>
+          <t>TZRU63-0120</t>
         </is>
       </c>
       <c r="F686" t="inlineStr">
@@ -32734,26 +32574,18 @@
       </c>
       <c r="G686" t="inlineStr">
         <is>
-          <t>3.5T</t>
+          <t>5T</t>
         </is>
       </c>
       <c r="H686" t="inlineStr">
         <is>
-          <t>6.0M</t>
-        </is>
-      </c>
-      <c r="I686" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J686" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5.5M</t>
+        </is>
+      </c>
+      <c r="I686" t="inlineStr"/>
+      <c r="J686" t="inlineStr"/>
       <c r="K686" t="n">
-        <v>10</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="687">
@@ -32768,7 +32600,7 @@
         </is>
       </c>
       <c r="C687" t="n">
-        <v>3000005470</v>
+        <v>3000009099</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -32777,7 +32609,7 @@
       </c>
       <c r="E687" t="inlineStr">
         <is>
-          <t>TZRU63-0100</t>
+          <t>TZRU63-0120</t>
         </is>
       </c>
       <c r="F687" t="inlineStr">
@@ -32787,26 +32619,18 @@
       </c>
       <c r="G687" t="inlineStr">
         <is>
-          <t>3.5T</t>
+          <t>5T</t>
         </is>
       </c>
       <c r="H687" t="inlineStr">
         <is>
-          <t>6.0M</t>
-        </is>
-      </c>
-      <c r="I687" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J687" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5.5M</t>
+        </is>
+      </c>
+      <c r="I687" t="inlineStr"/>
+      <c r="J687" t="inlineStr"/>
       <c r="K687" t="n">
-        <v>10</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="688">
@@ -32821,7 +32645,7 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>3000005470</v>
+        <v>3000009099</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -32830,7 +32654,7 @@
       </c>
       <c r="E688" t="inlineStr">
         <is>
-          <t>TZRU63-0110</t>
+          <t>TZRU63-0130</t>
         </is>
       </c>
       <c r="F688" t="inlineStr">
@@ -32840,26 +32664,18 @@
       </c>
       <c r="G688" t="inlineStr">
         <is>
-          <t>3.5T</t>
+          <t>5T</t>
         </is>
       </c>
       <c r="H688" t="inlineStr">
         <is>
-          <t>6.0M</t>
-        </is>
-      </c>
-      <c r="I688" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J688" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5.5M</t>
+        </is>
+      </c>
+      <c r="I688" t="inlineStr"/>
+      <c r="J688" t="inlineStr"/>
       <c r="K688" t="n">
-        <v>10</v>
+        <v>18500</v>
       </c>
     </row>
     <row r="689">
@@ -32874,7 +32690,7 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>3000005470</v>
+        <v>3000009099</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -32883,7 +32699,7 @@
       </c>
       <c r="E689" t="inlineStr">
         <is>
-          <t>TZRU63-0110</t>
+          <t>TZRU63-0130</t>
         </is>
       </c>
       <c r="F689" t="inlineStr">
@@ -32893,26 +32709,18 @@
       </c>
       <c r="G689" t="inlineStr">
         <is>
-          <t>3.5T</t>
+          <t>5T</t>
         </is>
       </c>
       <c r="H689" t="inlineStr">
         <is>
-          <t>6.0M</t>
-        </is>
-      </c>
-      <c r="I689" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J689" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5.5M</t>
+        </is>
+      </c>
+      <c r="I689" t="inlineStr"/>
+      <c r="J689" t="inlineStr"/>
       <c r="K689" t="n">
-        <v>10</v>
+        <v>18500</v>
       </c>
     </row>
     <row r="690">
@@ -32927,7 +32735,7 @@
         </is>
       </c>
       <c r="C690" t="n">
-        <v>3000005470</v>
+        <v>3000009099</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -32936,7 +32744,7 @@
       </c>
       <c r="E690" t="inlineStr">
         <is>
-          <t>TZRU63-0120</t>
+          <t>TZRU63-0140</t>
         </is>
       </c>
       <c r="F690" t="inlineStr">
@@ -32946,26 +32754,18 @@
       </c>
       <c r="G690" t="inlineStr">
         <is>
-          <t>3.5T</t>
+          <t>5T</t>
         </is>
       </c>
       <c r="H690" t="inlineStr">
         <is>
-          <t>6.0M</t>
-        </is>
-      </c>
-      <c r="I690" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J690" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5.5M</t>
+        </is>
+      </c>
+      <c r="I690" t="inlineStr"/>
+      <c r="J690" t="inlineStr"/>
       <c r="K690" t="n">
-        <v>10</v>
+        <v>25500</v>
       </c>
     </row>
     <row r="691">
@@ -32980,7 +32780,7 @@
         </is>
       </c>
       <c r="C691" t="n">
-        <v>3000005470</v>
+        <v>3000009099</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -32989,7 +32789,7 @@
       </c>
       <c r="E691" t="inlineStr">
         <is>
-          <t>TZRU63-0120</t>
+          <t>TZRU63-0140</t>
         </is>
       </c>
       <c r="F691" t="inlineStr">
@@ -32999,26 +32799,18 @@
       </c>
       <c r="G691" t="inlineStr">
         <is>
-          <t>3.5T</t>
+          <t>5T</t>
         </is>
       </c>
       <c r="H691" t="inlineStr">
         <is>
-          <t>6.0M</t>
-        </is>
-      </c>
-      <c r="I691" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J691" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5.5M</t>
+        </is>
+      </c>
+      <c r="I691" t="inlineStr"/>
+      <c r="J691" t="inlineStr"/>
       <c r="K691" t="n">
-        <v>10</v>
+        <v>25500</v>
       </c>
     </row>
     <row r="692">
@@ -33033,7 +32825,7 @@
         </is>
       </c>
       <c r="C692" t="n">
-        <v>3000005470</v>
+        <v>3000009099</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -33042,7 +32834,7 @@
       </c>
       <c r="E692" t="inlineStr">
         <is>
-          <t>TZRU63-0130</t>
+          <t>TZRU63-0150</t>
         </is>
       </c>
       <c r="F692" t="inlineStr">
@@ -33052,26 +32844,18 @@
       </c>
       <c r="G692" t="inlineStr">
         <is>
-          <t>3.5T</t>
+          <t>5T</t>
         </is>
       </c>
       <c r="H692" t="inlineStr">
         <is>
-          <t>6.0M</t>
-        </is>
-      </c>
-      <c r="I692" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J692" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5.5M</t>
+        </is>
+      </c>
+      <c r="I692" t="inlineStr"/>
+      <c r="J692" t="inlineStr"/>
       <c r="K692" t="n">
-        <v>10</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="693">
@@ -33086,7 +32870,7 @@
         </is>
       </c>
       <c r="C693" t="n">
-        <v>3000005470</v>
+        <v>3000009099</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -33095,7 +32879,7 @@
       </c>
       <c r="E693" t="inlineStr">
         <is>
-          <t>TZRU63-0130</t>
+          <t>TZRU63-0150</t>
         </is>
       </c>
       <c r="F693" t="inlineStr">
@@ -33105,26 +32889,18 @@
       </c>
       <c r="G693" t="inlineStr">
         <is>
-          <t>3.5T</t>
+          <t>5T</t>
         </is>
       </c>
       <c r="H693" t="inlineStr">
         <is>
-          <t>6.0M</t>
-        </is>
-      </c>
-      <c r="I693" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J693" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5.5M</t>
+        </is>
+      </c>
+      <c r="I693" t="inlineStr"/>
+      <c r="J693" t="inlineStr"/>
       <c r="K693" t="n">
-        <v>10</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="694">
@@ -33139,7 +32915,7 @@
         </is>
       </c>
       <c r="C694" t="n">
-        <v>3000005470</v>
+        <v>3000009099</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -33148,7 +32924,7 @@
       </c>
       <c r="E694" t="inlineStr">
         <is>
-          <t>TZRU63-0140</t>
+          <t>TZRU63-0160</t>
         </is>
       </c>
       <c r="F694" t="inlineStr">
@@ -33158,26 +32934,18 @@
       </c>
       <c r="G694" t="inlineStr">
         <is>
-          <t>3.5T</t>
+          <t>5T</t>
         </is>
       </c>
       <c r="H694" t="inlineStr">
         <is>
-          <t>6.0M</t>
-        </is>
-      </c>
-      <c r="I694" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J694" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5.5M</t>
+        </is>
+      </c>
+      <c r="I694" t="inlineStr"/>
+      <c r="J694" t="inlineStr"/>
       <c r="K694" t="n">
-        <v>10</v>
+        <v>25500</v>
       </c>
     </row>
     <row r="695">
@@ -33192,7 +32960,7 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>3000005470</v>
+        <v>3000009099</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -33201,7 +32969,7 @@
       </c>
       <c r="E695" t="inlineStr">
         <is>
-          <t>TZRU63-0140</t>
+          <t>TZRU63-0160</t>
         </is>
       </c>
       <c r="F695" t="inlineStr">
@@ -33211,26 +32979,18 @@
       </c>
       <c r="G695" t="inlineStr">
         <is>
-          <t>3.5T</t>
+          <t>5T</t>
         </is>
       </c>
       <c r="H695" t="inlineStr">
         <is>
-          <t>6.0M</t>
-        </is>
-      </c>
-      <c r="I695" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J695" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5.5M</t>
+        </is>
+      </c>
+      <c r="I695" t="inlineStr"/>
+      <c r="J695" t="inlineStr"/>
       <c r="K695" t="n">
-        <v>10</v>
+        <v>25500</v>
       </c>
     </row>
     <row r="696">
@@ -33245,7 +33005,7 @@
         </is>
       </c>
       <c r="C696" t="n">
-        <v>3000005470</v>
+        <v>3000009099</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -33254,7 +33014,7 @@
       </c>
       <c r="E696" t="inlineStr">
         <is>
-          <t>TZRU63-0150</t>
+          <t>TZRU63-0170</t>
         </is>
       </c>
       <c r="F696" t="inlineStr">
@@ -33264,26 +33024,18 @@
       </c>
       <c r="G696" t="inlineStr">
         <is>
-          <t>3.5T</t>
+          <t>5T</t>
         </is>
       </c>
       <c r="H696" t="inlineStr">
         <is>
-          <t>6.0M</t>
-        </is>
-      </c>
-      <c r="I696" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J696" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5.5M</t>
+        </is>
+      </c>
+      <c r="I696" t="inlineStr"/>
+      <c r="J696" t="inlineStr"/>
       <c r="K696" t="n">
-        <v>10</v>
+        <v>25500</v>
       </c>
     </row>
     <row r="697">
@@ -33298,7 +33050,7 @@
         </is>
       </c>
       <c r="C697" t="n">
-        <v>3000005470</v>
+        <v>3000009099</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -33307,7 +33059,7 @@
       </c>
       <c r="E697" t="inlineStr">
         <is>
-          <t>TZRU63-0150</t>
+          <t>TZRU63-0170</t>
         </is>
       </c>
       <c r="F697" t="inlineStr">
@@ -33317,26 +33069,18 @@
       </c>
       <c r="G697" t="inlineStr">
         <is>
-          <t>3.5T</t>
+          <t>5T</t>
         </is>
       </c>
       <c r="H697" t="inlineStr">
         <is>
-          <t>6.0M</t>
-        </is>
-      </c>
-      <c r="I697" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J697" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5.5M</t>
+        </is>
+      </c>
+      <c r="I697" t="inlineStr"/>
+      <c r="J697" t="inlineStr"/>
       <c r="K697" t="n">
-        <v>10</v>
+        <v>25500</v>
       </c>
     </row>
     <row r="698">
@@ -33351,7 +33095,7 @@
         </is>
       </c>
       <c r="C698" t="n">
-        <v>3000005470</v>
+        <v>3000009099</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -33360,7 +33104,7 @@
       </c>
       <c r="E698" t="inlineStr">
         <is>
-          <t>TZRU63-0160</t>
+          <t>TZRU63-0180</t>
         </is>
       </c>
       <c r="F698" t="inlineStr">
@@ -33370,26 +33114,18 @@
       </c>
       <c r="G698" t="inlineStr">
         <is>
-          <t>3.5T</t>
+          <t>5T</t>
         </is>
       </c>
       <c r="H698" t="inlineStr">
         <is>
-          <t>6.0M</t>
-        </is>
-      </c>
-      <c r="I698" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J698" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5.5M</t>
+        </is>
+      </c>
+      <c r="I698" t="inlineStr"/>
+      <c r="J698" t="inlineStr"/>
       <c r="K698" t="n">
-        <v>10</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="699">
@@ -33404,7 +33140,7 @@
         </is>
       </c>
       <c r="C699" t="n">
-        <v>3000005470</v>
+        <v>3000009099</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -33413,7 +33149,7 @@
       </c>
       <c r="E699" t="inlineStr">
         <is>
-          <t>TZRU63-0160</t>
+          <t>TZRU63-0180</t>
         </is>
       </c>
       <c r="F699" t="inlineStr">
@@ -33423,26 +33159,18 @@
       </c>
       <c r="G699" t="inlineStr">
         <is>
-          <t>3.5T</t>
+          <t>5T</t>
         </is>
       </c>
       <c r="H699" t="inlineStr">
         <is>
-          <t>6.0M</t>
-        </is>
-      </c>
-      <c r="I699" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J699" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5.5M</t>
+        </is>
+      </c>
+      <c r="I699" t="inlineStr"/>
+      <c r="J699" t="inlineStr"/>
       <c r="K699" t="n">
-        <v>10</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="700">
@@ -33457,7 +33185,7 @@
         </is>
       </c>
       <c r="C700" t="n">
-        <v>3000005470</v>
+        <v>3000009099</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -33466,7 +33194,7 @@
       </c>
       <c r="E700" t="inlineStr">
         <is>
-          <t>TZRU63-0170</t>
+          <t>TZRU63-0190</t>
         </is>
       </c>
       <c r="F700" t="inlineStr">
@@ -33476,26 +33204,18 @@
       </c>
       <c r="G700" t="inlineStr">
         <is>
-          <t>3.5T</t>
+          <t>5T</t>
         </is>
       </c>
       <c r="H700" t="inlineStr">
         <is>
-          <t>6.0M</t>
-        </is>
-      </c>
-      <c r="I700" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J700" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5.5M</t>
+        </is>
+      </c>
+      <c r="I700" t="inlineStr"/>
+      <c r="J700" t="inlineStr"/>
       <c r="K700" t="n">
-        <v>10</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="701">
@@ -33510,7 +33230,7 @@
         </is>
       </c>
       <c r="C701" t="n">
-        <v>3000005470</v>
+        <v>3000009099</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -33519,7 +33239,7 @@
       </c>
       <c r="E701" t="inlineStr">
         <is>
-          <t>TZRU63-0170</t>
+          <t>TZRU63-0190</t>
         </is>
       </c>
       <c r="F701" t="inlineStr">
@@ -33529,26 +33249,18 @@
       </c>
       <c r="G701" t="inlineStr">
         <is>
-          <t>3.5T</t>
+          <t>5T</t>
         </is>
       </c>
       <c r="H701" t="inlineStr">
         <is>
-          <t>6.0M</t>
-        </is>
-      </c>
-      <c r="I701" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J701" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5.5M</t>
+        </is>
+      </c>
+      <c r="I701" t="inlineStr"/>
+      <c r="J701" t="inlineStr"/>
       <c r="K701" t="n">
-        <v>10</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="702">
@@ -33563,7 +33275,7 @@
         </is>
       </c>
       <c r="C702" t="n">
-        <v>3000005470</v>
+        <v>3000009099</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -33572,7 +33284,7 @@
       </c>
       <c r="E702" t="inlineStr">
         <is>
-          <t>TZRU63-0180</t>
+          <t>TZRU63-0200</t>
         </is>
       </c>
       <c r="F702" t="inlineStr">
@@ -33582,26 +33294,18 @@
       </c>
       <c r="G702" t="inlineStr">
         <is>
-          <t>3.5T</t>
+          <t>5T</t>
         </is>
       </c>
       <c r="H702" t="inlineStr">
         <is>
-          <t>6.0M</t>
-        </is>
-      </c>
-      <c r="I702" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J702" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5.5M</t>
+        </is>
+      </c>
+      <c r="I702" t="inlineStr"/>
+      <c r="J702" t="inlineStr"/>
       <c r="K702" t="n">
-        <v>10</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="703">
@@ -33616,7 +33320,7 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>3000005470</v>
+        <v>3000009099</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -33625,7 +33329,7 @@
       </c>
       <c r="E703" t="inlineStr">
         <is>
-          <t>TZRU63-0180</t>
+          <t>TZRU63-0200</t>
         </is>
       </c>
       <c r="F703" t="inlineStr">
@@ -33635,26 +33339,18 @@
       </c>
       <c r="G703" t="inlineStr">
         <is>
-          <t>3.5T</t>
+          <t>5T</t>
         </is>
       </c>
       <c r="H703" t="inlineStr">
         <is>
-          <t>6.0M</t>
-        </is>
-      </c>
-      <c r="I703" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J703" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5.5M</t>
+        </is>
+      </c>
+      <c r="I703" t="inlineStr"/>
+      <c r="J703" t="inlineStr"/>
       <c r="K703" t="n">
-        <v>10</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="704">
@@ -33669,7 +33365,7 @@
         </is>
       </c>
       <c r="C704" t="n">
-        <v>3000005470</v>
+        <v>3000009099</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -33678,7 +33374,7 @@
       </c>
       <c r="E704" t="inlineStr">
         <is>
-          <t>TZRU63-0190</t>
+          <t>TZRU63-0210</t>
         </is>
       </c>
       <c r="F704" t="inlineStr">
@@ -33688,26 +33384,18 @@
       </c>
       <c r="G704" t="inlineStr">
         <is>
-          <t>3.5T</t>
+          <t>5T</t>
         </is>
       </c>
       <c r="H704" t="inlineStr">
         <is>
-          <t>6.0M</t>
-        </is>
-      </c>
-      <c r="I704" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J704" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5.5M</t>
+        </is>
+      </c>
+      <c r="I704" t="inlineStr"/>
+      <c r="J704" t="inlineStr"/>
       <c r="K704" t="n">
-        <v>10</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="705">
@@ -33722,7 +33410,7 @@
         </is>
       </c>
       <c r="C705" t="n">
-        <v>3000005470</v>
+        <v>3000009099</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -33731,7 +33419,7 @@
       </c>
       <c r="E705" t="inlineStr">
         <is>
-          <t>TZRU63-0190</t>
+          <t>TZRU63-0210</t>
         </is>
       </c>
       <c r="F705" t="inlineStr">
@@ -33741,26 +33429,18 @@
       </c>
       <c r="G705" t="inlineStr">
         <is>
-          <t>3.5T</t>
+          <t>5T</t>
         </is>
       </c>
       <c r="H705" t="inlineStr">
         <is>
-          <t>6.0M</t>
-        </is>
-      </c>
-      <c r="I705" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J705" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5.5M</t>
+        </is>
+      </c>
+      <c r="I705" t="inlineStr"/>
+      <c r="J705" t="inlineStr"/>
       <c r="K705" t="n">
-        <v>10</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="706">
@@ -33775,7 +33455,7 @@
         </is>
       </c>
       <c r="C706" t="n">
-        <v>3000005470</v>
+        <v>3000009099</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -33784,7 +33464,7 @@
       </c>
       <c r="E706" t="inlineStr">
         <is>
-          <t>TZRU63-0200</t>
+          <t>TZRU63-0220</t>
         </is>
       </c>
       <c r="F706" t="inlineStr">
@@ -33794,26 +33474,18 @@
       </c>
       <c r="G706" t="inlineStr">
         <is>
-          <t>3.5T</t>
+          <t>5T</t>
         </is>
       </c>
       <c r="H706" t="inlineStr">
         <is>
-          <t>6.0M</t>
-        </is>
-      </c>
-      <c r="I706" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J706" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5.5M</t>
+        </is>
+      </c>
+      <c r="I706" t="inlineStr"/>
+      <c r="J706" t="inlineStr"/>
       <c r="K706" t="n">
-        <v>10</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="707">
@@ -33828,7 +33500,7 @@
         </is>
       </c>
       <c r="C707" t="n">
-        <v>3000005470</v>
+        <v>3000009099</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -33837,7 +33509,7 @@
       </c>
       <c r="E707" t="inlineStr">
         <is>
-          <t>TZRU63-0200</t>
+          <t>TZRU63-0220</t>
         </is>
       </c>
       <c r="F707" t="inlineStr">
@@ -33847,26 +33519,18 @@
       </c>
       <c r="G707" t="inlineStr">
         <is>
-          <t>3.5T</t>
+          <t>5T</t>
         </is>
       </c>
       <c r="H707" t="inlineStr">
         <is>
-          <t>6.0M</t>
-        </is>
-      </c>
-      <c r="I707" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J707" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5.5M</t>
+        </is>
+      </c>
+      <c r="I707" t="inlineStr"/>
+      <c r="J707" t="inlineStr"/>
       <c r="K707" t="n">
-        <v>10</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="708">
@@ -33881,7 +33545,7 @@
         </is>
       </c>
       <c r="C708" t="n">
-        <v>3000005470</v>
+        <v>3000009099</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -33890,7 +33554,7 @@
       </c>
       <c r="E708" t="inlineStr">
         <is>
-          <t>TZRU63-0210</t>
+          <t>TZRU63-0250</t>
         </is>
       </c>
       <c r="F708" t="inlineStr">
@@ -33900,26 +33564,18 @@
       </c>
       <c r="G708" t="inlineStr">
         <is>
-          <t>3.5T</t>
+          <t>5T</t>
         </is>
       </c>
       <c r="H708" t="inlineStr">
         <is>
-          <t>6.0M</t>
-        </is>
-      </c>
-      <c r="I708" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="J708" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>5.5M</t>
+        </is>
+      </c>
+      <c r="I708" t="inlineStr"/>
+      <c r="J708" t="inlineStr"/>
       <c r="K708" t="n">
-        <v>10</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="709">
@@ -33934,44 +33590,2548 @@
         </is>
       </c>
       <c r="C709" t="n">
+        <v>3000009099</v>
+      </c>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t>TZRU63-0001</t>
+        </is>
+      </c>
+      <c r="E709" t="inlineStr">
+        <is>
+          <t>TZRU63-0250</t>
+        </is>
+      </c>
+      <c r="F709" t="inlineStr">
+        <is>
+          <t>PO1033</t>
+        </is>
+      </c>
+      <c r="G709" t="inlineStr">
+        <is>
+          <t>5T</t>
+        </is>
+      </c>
+      <c r="H709" t="inlineStr">
+        <is>
+          <t>5.5M</t>
+        </is>
+      </c>
+      <c r="I709" t="inlineStr"/>
+      <c r="J709" t="inlineStr"/>
+      <c r="K709" t="n">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>ZR11</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="C710" t="n">
+        <v>3000009099</v>
+      </c>
+      <c r="D710" t="inlineStr">
+        <is>
+          <t>TZRU63-0001</t>
+        </is>
+      </c>
+      <c r="E710" t="inlineStr">
+        <is>
+          <t>TZRU63-0260</t>
+        </is>
+      </c>
+      <c r="F710" t="inlineStr">
+        <is>
+          <t>PO1033</t>
+        </is>
+      </c>
+      <c r="G710" t="inlineStr">
+        <is>
+          <t>5T</t>
+        </is>
+      </c>
+      <c r="H710" t="inlineStr">
+        <is>
+          <t>5.5M</t>
+        </is>
+      </c>
+      <c r="I710" t="inlineStr"/>
+      <c r="J710" t="inlineStr"/>
+      <c r="K710" t="n">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>ZW91</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="C711" t="n">
+        <v>3000009099</v>
+      </c>
+      <c r="D711" t="inlineStr">
+        <is>
+          <t>TZRU63-0001</t>
+        </is>
+      </c>
+      <c r="E711" t="inlineStr">
+        <is>
+          <t>TZRU63-0260</t>
+        </is>
+      </c>
+      <c r="F711" t="inlineStr">
+        <is>
+          <t>PO1033</t>
+        </is>
+      </c>
+      <c r="G711" t="inlineStr">
+        <is>
+          <t>5T</t>
+        </is>
+      </c>
+      <c r="H711" t="inlineStr">
+        <is>
+          <t>5.5M</t>
+        </is>
+      </c>
+      <c r="I711" t="inlineStr"/>
+      <c r="J711" t="inlineStr"/>
+      <c r="K711" t="n">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>ZR11</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="C712" t="n">
+        <v>3000009099</v>
+      </c>
+      <c r="D712" t="inlineStr">
+        <is>
+          <t>TZRU63-0001</t>
+        </is>
+      </c>
+      <c r="E712" t="inlineStr">
+        <is>
+          <t>TZRU63-0270</t>
+        </is>
+      </c>
+      <c r="F712" t="inlineStr">
+        <is>
+          <t>PO1033</t>
+        </is>
+      </c>
+      <c r="G712" t="inlineStr">
+        <is>
+          <t>5T</t>
+        </is>
+      </c>
+      <c r="H712" t="inlineStr">
+        <is>
+          <t>5.5M</t>
+        </is>
+      </c>
+      <c r="I712" t="inlineStr"/>
+      <c r="J712" t="inlineStr"/>
+      <c r="K712" t="n">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>ZW91</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="C713" t="n">
+        <v>3000009099</v>
+      </c>
+      <c r="D713" t="inlineStr">
+        <is>
+          <t>TZRU63-0001</t>
+        </is>
+      </c>
+      <c r="E713" t="inlineStr">
+        <is>
+          <t>TZRU63-0270</t>
+        </is>
+      </c>
+      <c r="F713" t="inlineStr">
+        <is>
+          <t>PO1033</t>
+        </is>
+      </c>
+      <c r="G713" t="inlineStr">
+        <is>
+          <t>5T</t>
+        </is>
+      </c>
+      <c r="H713" t="inlineStr">
+        <is>
+          <t>5.5M</t>
+        </is>
+      </c>
+      <c r="I713" t="inlineStr"/>
+      <c r="J713" t="inlineStr"/>
+      <c r="K713" t="n">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>ZR11</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="C714" t="n">
         <v>3000005470</v>
       </c>
-      <c r="D709" t="inlineStr">
+      <c r="D714" t="inlineStr">
+        <is>
+          <t>TZRU00-0050</t>
+        </is>
+      </c>
+      <c r="E714" t="inlineStr">
         <is>
           <t>TZRU63-0001</t>
         </is>
       </c>
-      <c r="E709" t="inlineStr">
+      <c r="F714" t="inlineStr">
+        <is>
+          <t>PO1033</t>
+        </is>
+      </c>
+      <c r="G714" t="inlineStr">
+        <is>
+          <t>1.5T</t>
+        </is>
+      </c>
+      <c r="H714" t="inlineStr">
+        <is>
+          <t>6M</t>
+        </is>
+      </c>
+      <c r="I714" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J714" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K714" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>ZW91</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="C715" t="n">
+        <v>3000005470</v>
+      </c>
+      <c r="D715" t="inlineStr">
+        <is>
+          <t>TZRU00-0050</t>
+        </is>
+      </c>
+      <c r="E715" t="inlineStr">
+        <is>
+          <t>TZRU63-0001</t>
+        </is>
+      </c>
+      <c r="F715" t="inlineStr">
+        <is>
+          <t>PO1033</t>
+        </is>
+      </c>
+      <c r="G715" t="inlineStr">
+        <is>
+          <t>1.5T</t>
+        </is>
+      </c>
+      <c r="H715" t="inlineStr">
+        <is>
+          <t>6M</t>
+        </is>
+      </c>
+      <c r="I715" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J715" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K715" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>ZR11</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="C716" t="n">
+        <v>3000005470</v>
+      </c>
+      <c r="D716" t="inlineStr">
+        <is>
+          <t>TZRU00-0070</t>
+        </is>
+      </c>
+      <c r="E716" t="inlineStr">
+        <is>
+          <t>TZRU63-0001</t>
+        </is>
+      </c>
+      <c r="F716" t="inlineStr">
+        <is>
+          <t>PO1033</t>
+        </is>
+      </c>
+      <c r="G716" t="inlineStr">
+        <is>
+          <t>1.5T</t>
+        </is>
+      </c>
+      <c r="H716" t="inlineStr">
+        <is>
+          <t>6M</t>
+        </is>
+      </c>
+      <c r="I716" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J716" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K716" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>ZW91</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="C717" t="n">
+        <v>3000005470</v>
+      </c>
+      <c r="D717" t="inlineStr">
+        <is>
+          <t>TZRU00-0070</t>
+        </is>
+      </c>
+      <c r="E717" t="inlineStr">
+        <is>
+          <t>TZRU63-0001</t>
+        </is>
+      </c>
+      <c r="F717" t="inlineStr">
+        <is>
+          <t>PO1033</t>
+        </is>
+      </c>
+      <c r="G717" t="inlineStr">
+        <is>
+          <t>1.5T</t>
+        </is>
+      </c>
+      <c r="H717" t="inlineStr">
+        <is>
+          <t>6M</t>
+        </is>
+      </c>
+      <c r="I717" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J717" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K717" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>ZR11</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="C718" t="n">
+        <v>3000005470</v>
+      </c>
+      <c r="D718" t="inlineStr">
+        <is>
+          <t>TZRU63-0001</t>
+        </is>
+      </c>
+      <c r="E718" t="inlineStr">
+        <is>
+          <t>TZRU63-0002</t>
+        </is>
+      </c>
+      <c r="F718" t="inlineStr">
+        <is>
+          <t>PO1033</t>
+        </is>
+      </c>
+      <c r="G718" t="inlineStr">
+        <is>
+          <t>1.5T</t>
+        </is>
+      </c>
+      <c r="H718" t="inlineStr">
+        <is>
+          <t>6M</t>
+        </is>
+      </c>
+      <c r="I718" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J718" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K718" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>ZW91</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="C719" t="n">
+        <v>3000005470</v>
+      </c>
+      <c r="D719" t="inlineStr">
+        <is>
+          <t>TZRU63-0001</t>
+        </is>
+      </c>
+      <c r="E719" t="inlineStr">
+        <is>
+          <t>TZRU63-0002</t>
+        </is>
+      </c>
+      <c r="F719" t="inlineStr">
+        <is>
+          <t>PO1033</t>
+        </is>
+      </c>
+      <c r="G719" t="inlineStr">
+        <is>
+          <t>1.5T</t>
+        </is>
+      </c>
+      <c r="H719" t="inlineStr">
+        <is>
+          <t>6M</t>
+        </is>
+      </c>
+      <c r="I719" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J719" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K719" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>ZR11</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="C720" t="n">
+        <v>3000005470</v>
+      </c>
+      <c r="D720" t="inlineStr">
+        <is>
+          <t>TZRU63-0001</t>
+        </is>
+      </c>
+      <c r="E720" t="inlineStr">
+        <is>
+          <t>TZRU63-0003</t>
+        </is>
+      </c>
+      <c r="F720" t="inlineStr">
+        <is>
+          <t>PO1033</t>
+        </is>
+      </c>
+      <c r="G720" t="inlineStr">
+        <is>
+          <t>1.5T</t>
+        </is>
+      </c>
+      <c r="H720" t="inlineStr">
+        <is>
+          <t>6M</t>
+        </is>
+      </c>
+      <c r="I720" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J720" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K720" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>ZW91</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="C721" t="n">
+        <v>3000005470</v>
+      </c>
+      <c r="D721" t="inlineStr">
+        <is>
+          <t>TZRU63-0001</t>
+        </is>
+      </c>
+      <c r="E721" t="inlineStr">
+        <is>
+          <t>TZRU63-0003</t>
+        </is>
+      </c>
+      <c r="F721" t="inlineStr">
+        <is>
+          <t>PO1033</t>
+        </is>
+      </c>
+      <c r="G721" t="inlineStr">
+        <is>
+          <t>1.5T</t>
+        </is>
+      </c>
+      <c r="H721" t="inlineStr">
+        <is>
+          <t>6M</t>
+        </is>
+      </c>
+      <c r="I721" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J721" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K721" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>ZR11</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="C722" t="n">
+        <v>3000005470</v>
+      </c>
+      <c r="D722" t="inlineStr">
+        <is>
+          <t>TZRU63-0001</t>
+        </is>
+      </c>
+      <c r="E722" t="inlineStr">
+        <is>
+          <t>TZRU63-0004</t>
+        </is>
+      </c>
+      <c r="F722" t="inlineStr">
+        <is>
+          <t>PO1033</t>
+        </is>
+      </c>
+      <c r="G722" t="inlineStr">
+        <is>
+          <t>1.5T</t>
+        </is>
+      </c>
+      <c r="H722" t="inlineStr">
+        <is>
+          <t>6M</t>
+        </is>
+      </c>
+      <c r="I722" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J722" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K722" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>ZW91</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="C723" t="n">
+        <v>3000005470</v>
+      </c>
+      <c r="D723" t="inlineStr">
+        <is>
+          <t>TZRU63-0001</t>
+        </is>
+      </c>
+      <c r="E723" t="inlineStr">
+        <is>
+          <t>TZRU63-0004</t>
+        </is>
+      </c>
+      <c r="F723" t="inlineStr">
+        <is>
+          <t>PO1033</t>
+        </is>
+      </c>
+      <c r="G723" t="inlineStr">
+        <is>
+          <t>1.5T</t>
+        </is>
+      </c>
+      <c r="H723" t="inlineStr">
+        <is>
+          <t>6M</t>
+        </is>
+      </c>
+      <c r="I723" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J723" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K723" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>ZR11</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="C724" t="n">
+        <v>3000005470</v>
+      </c>
+      <c r="D724" t="inlineStr">
+        <is>
+          <t>TZRU63-0001</t>
+        </is>
+      </c>
+      <c r="E724" t="inlineStr">
+        <is>
+          <t>TZRU63-0020</t>
+        </is>
+      </c>
+      <c r="F724" t="inlineStr">
+        <is>
+          <t>PO1033</t>
+        </is>
+      </c>
+      <c r="G724" t="inlineStr">
+        <is>
+          <t>1.5T</t>
+        </is>
+      </c>
+      <c r="H724" t="inlineStr">
+        <is>
+          <t>6M</t>
+        </is>
+      </c>
+      <c r="I724" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J724" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K724" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>ZW91</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="C725" t="n">
+        <v>3000005470</v>
+      </c>
+      <c r="D725" t="inlineStr">
+        <is>
+          <t>TZRU63-0001</t>
+        </is>
+      </c>
+      <c r="E725" t="inlineStr">
+        <is>
+          <t>TZRU63-0020</t>
+        </is>
+      </c>
+      <c r="F725" t="inlineStr">
+        <is>
+          <t>PO1033</t>
+        </is>
+      </c>
+      <c r="G725" t="inlineStr">
+        <is>
+          <t>1.5T</t>
+        </is>
+      </c>
+      <c r="H725" t="inlineStr">
+        <is>
+          <t>6M</t>
+        </is>
+      </c>
+      <c r="I725" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J725" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K725" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>ZR11</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="C726" t="n">
+        <v>3000005470</v>
+      </c>
+      <c r="D726" t="inlineStr">
+        <is>
+          <t>TZRU63-0001</t>
+        </is>
+      </c>
+      <c r="E726" t="inlineStr">
+        <is>
+          <t>TZRU63-0060</t>
+        </is>
+      </c>
+      <c r="F726" t="inlineStr">
+        <is>
+          <t>PO1033</t>
+        </is>
+      </c>
+      <c r="G726" t="inlineStr">
+        <is>
+          <t>1.5T</t>
+        </is>
+      </c>
+      <c r="H726" t="inlineStr">
+        <is>
+          <t>6M</t>
+        </is>
+      </c>
+      <c r="I726" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J726" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K726" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>ZW91</t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="C727" t="n">
+        <v>3000005470</v>
+      </c>
+      <c r="D727" t="inlineStr">
+        <is>
+          <t>TZRU63-0001</t>
+        </is>
+      </c>
+      <c r="E727" t="inlineStr">
+        <is>
+          <t>TZRU63-0060</t>
+        </is>
+      </c>
+      <c r="F727" t="inlineStr">
+        <is>
+          <t>PO1033</t>
+        </is>
+      </c>
+      <c r="G727" t="inlineStr">
+        <is>
+          <t>1.5T</t>
+        </is>
+      </c>
+      <c r="H727" t="inlineStr">
+        <is>
+          <t>6M</t>
+        </is>
+      </c>
+      <c r="I727" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J727" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K727" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>ZR11</t>
+        </is>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="C728" t="n">
+        <v>3000005470</v>
+      </c>
+      <c r="D728" t="inlineStr">
+        <is>
+          <t>TZRU63-0001</t>
+        </is>
+      </c>
+      <c r="E728" t="inlineStr">
+        <is>
+          <t>TZRU63-0070</t>
+        </is>
+      </c>
+      <c r="F728" t="inlineStr">
+        <is>
+          <t>PO1033</t>
+        </is>
+      </c>
+      <c r="G728" t="inlineStr">
+        <is>
+          <t>1.5T</t>
+        </is>
+      </c>
+      <c r="H728" t="inlineStr">
+        <is>
+          <t>6M</t>
+        </is>
+      </c>
+      <c r="I728" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J728" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K728" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>ZW91</t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="C729" t="n">
+        <v>3000005470</v>
+      </c>
+      <c r="D729" t="inlineStr">
+        <is>
+          <t>TZRU63-0001</t>
+        </is>
+      </c>
+      <c r="E729" t="inlineStr">
+        <is>
+          <t>TZRU63-0070</t>
+        </is>
+      </c>
+      <c r="F729" t="inlineStr">
+        <is>
+          <t>PO1033</t>
+        </is>
+      </c>
+      <c r="G729" t="inlineStr">
+        <is>
+          <t>1.5T</t>
+        </is>
+      </c>
+      <c r="H729" t="inlineStr">
+        <is>
+          <t>6M</t>
+        </is>
+      </c>
+      <c r="I729" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J729" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K729" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>ZR11</t>
+        </is>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="C730" t="n">
+        <v>3000005470</v>
+      </c>
+      <c r="D730" t="inlineStr">
+        <is>
+          <t>TZRU63-0001</t>
+        </is>
+      </c>
+      <c r="E730" t="inlineStr">
+        <is>
+          <t>TZRU63-0080</t>
+        </is>
+      </c>
+      <c r="F730" t="inlineStr">
+        <is>
+          <t>PO1033</t>
+        </is>
+      </c>
+      <c r="G730" t="inlineStr">
+        <is>
+          <t>1.5T</t>
+        </is>
+      </c>
+      <c r="H730" t="inlineStr">
+        <is>
+          <t>6M</t>
+        </is>
+      </c>
+      <c r="I730" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J730" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K730" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>ZW91</t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="C731" t="n">
+        <v>3000005470</v>
+      </c>
+      <c r="D731" t="inlineStr">
+        <is>
+          <t>TZRU63-0001</t>
+        </is>
+      </c>
+      <c r="E731" t="inlineStr">
+        <is>
+          <t>TZRU63-0080</t>
+        </is>
+      </c>
+      <c r="F731" t="inlineStr">
+        <is>
+          <t>PO1033</t>
+        </is>
+      </c>
+      <c r="G731" t="inlineStr">
+        <is>
+          <t>1.5T</t>
+        </is>
+      </c>
+      <c r="H731" t="inlineStr">
+        <is>
+          <t>6M</t>
+        </is>
+      </c>
+      <c r="I731" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J731" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K731" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>ZR11</t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="C732" t="n">
+        <v>3000005470</v>
+      </c>
+      <c r="D732" t="inlineStr">
+        <is>
+          <t>TZRU63-0001</t>
+        </is>
+      </c>
+      <c r="E732" t="inlineStr">
+        <is>
+          <t>TZRU63-0090</t>
+        </is>
+      </c>
+      <c r="F732" t="inlineStr">
+        <is>
+          <t>PO1033</t>
+        </is>
+      </c>
+      <c r="G732" t="inlineStr">
+        <is>
+          <t>1.5T</t>
+        </is>
+      </c>
+      <c r="H732" t="inlineStr">
+        <is>
+          <t>6M</t>
+        </is>
+      </c>
+      <c r="I732" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J732" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K732" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>ZW91</t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="C733" t="n">
+        <v>3000005470</v>
+      </c>
+      <c r="D733" t="inlineStr">
+        <is>
+          <t>TZRU63-0001</t>
+        </is>
+      </c>
+      <c r="E733" t="inlineStr">
+        <is>
+          <t>TZRU63-0090</t>
+        </is>
+      </c>
+      <c r="F733" t="inlineStr">
+        <is>
+          <t>PO1033</t>
+        </is>
+      </c>
+      <c r="G733" t="inlineStr">
+        <is>
+          <t>1.5T</t>
+        </is>
+      </c>
+      <c r="H733" t="inlineStr">
+        <is>
+          <t>6M</t>
+        </is>
+      </c>
+      <c r="I733" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J733" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K733" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>ZR11</t>
+        </is>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="C734" t="n">
+        <v>3000005470</v>
+      </c>
+      <c r="D734" t="inlineStr">
+        <is>
+          <t>TZRU63-0001</t>
+        </is>
+      </c>
+      <c r="E734" t="inlineStr">
+        <is>
+          <t>TZRU63-0100</t>
+        </is>
+      </c>
+      <c r="F734" t="inlineStr">
+        <is>
+          <t>PO1033</t>
+        </is>
+      </c>
+      <c r="G734" t="inlineStr">
+        <is>
+          <t>1.5T</t>
+        </is>
+      </c>
+      <c r="H734" t="inlineStr">
+        <is>
+          <t>6M</t>
+        </is>
+      </c>
+      <c r="I734" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J734" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K734" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>ZW91</t>
+        </is>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="C735" t="n">
+        <v>3000005470</v>
+      </c>
+      <c r="D735" t="inlineStr">
+        <is>
+          <t>TZRU63-0001</t>
+        </is>
+      </c>
+      <c r="E735" t="inlineStr">
+        <is>
+          <t>TZRU63-0100</t>
+        </is>
+      </c>
+      <c r="F735" t="inlineStr">
+        <is>
+          <t>PO1033</t>
+        </is>
+      </c>
+      <c r="G735" t="inlineStr">
+        <is>
+          <t>1.5T</t>
+        </is>
+      </c>
+      <c r="H735" t="inlineStr">
+        <is>
+          <t>6M</t>
+        </is>
+      </c>
+      <c r="I735" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J735" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K735" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>ZR11</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="C736" t="n">
+        <v>3000005470</v>
+      </c>
+      <c r="D736" t="inlineStr">
+        <is>
+          <t>TZRU63-0001</t>
+        </is>
+      </c>
+      <c r="E736" t="inlineStr">
+        <is>
+          <t>TZRU63-0110</t>
+        </is>
+      </c>
+      <c r="F736" t="inlineStr">
+        <is>
+          <t>PO1033</t>
+        </is>
+      </c>
+      <c r="G736" t="inlineStr">
+        <is>
+          <t>1.5T</t>
+        </is>
+      </c>
+      <c r="H736" t="inlineStr">
+        <is>
+          <t>6M</t>
+        </is>
+      </c>
+      <c r="I736" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J736" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K736" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>ZW91</t>
+        </is>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="C737" t="n">
+        <v>3000005470</v>
+      </c>
+      <c r="D737" t="inlineStr">
+        <is>
+          <t>TZRU63-0001</t>
+        </is>
+      </c>
+      <c r="E737" t="inlineStr">
+        <is>
+          <t>TZRU63-0110</t>
+        </is>
+      </c>
+      <c r="F737" t="inlineStr">
+        <is>
+          <t>PO1033</t>
+        </is>
+      </c>
+      <c r="G737" t="inlineStr">
+        <is>
+          <t>1.5T</t>
+        </is>
+      </c>
+      <c r="H737" t="inlineStr">
+        <is>
+          <t>6M</t>
+        </is>
+      </c>
+      <c r="I737" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J737" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K737" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>ZR11</t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="C738" t="n">
+        <v>3000005470</v>
+      </c>
+      <c r="D738" t="inlineStr">
+        <is>
+          <t>TZRU63-0001</t>
+        </is>
+      </c>
+      <c r="E738" t="inlineStr">
+        <is>
+          <t>TZRU63-0120</t>
+        </is>
+      </c>
+      <c r="F738" t="inlineStr">
+        <is>
+          <t>PO1033</t>
+        </is>
+      </c>
+      <c r="G738" t="inlineStr">
+        <is>
+          <t>1.5T</t>
+        </is>
+      </c>
+      <c r="H738" t="inlineStr">
+        <is>
+          <t>6M</t>
+        </is>
+      </c>
+      <c r="I738" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J738" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K738" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>ZW91</t>
+        </is>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="C739" t="n">
+        <v>3000005470</v>
+      </c>
+      <c r="D739" t="inlineStr">
+        <is>
+          <t>TZRU63-0001</t>
+        </is>
+      </c>
+      <c r="E739" t="inlineStr">
+        <is>
+          <t>TZRU63-0120</t>
+        </is>
+      </c>
+      <c r="F739" t="inlineStr">
+        <is>
+          <t>PO1033</t>
+        </is>
+      </c>
+      <c r="G739" t="inlineStr">
+        <is>
+          <t>1.5T</t>
+        </is>
+      </c>
+      <c r="H739" t="inlineStr">
+        <is>
+          <t>6M</t>
+        </is>
+      </c>
+      <c r="I739" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J739" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K739" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>ZR11</t>
+        </is>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="C740" t="n">
+        <v>3000005470</v>
+      </c>
+      <c r="D740" t="inlineStr">
+        <is>
+          <t>TZRU63-0001</t>
+        </is>
+      </c>
+      <c r="E740" t="inlineStr">
+        <is>
+          <t>TZRU63-0130</t>
+        </is>
+      </c>
+      <c r="F740" t="inlineStr">
+        <is>
+          <t>PO1033</t>
+        </is>
+      </c>
+      <c r="G740" t="inlineStr">
+        <is>
+          <t>1.5T</t>
+        </is>
+      </c>
+      <c r="H740" t="inlineStr">
+        <is>
+          <t>6M</t>
+        </is>
+      </c>
+      <c r="I740" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J740" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K740" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>ZW91</t>
+        </is>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="C741" t="n">
+        <v>3000005470</v>
+      </c>
+      <c r="D741" t="inlineStr">
+        <is>
+          <t>TZRU63-0001</t>
+        </is>
+      </c>
+      <c r="E741" t="inlineStr">
+        <is>
+          <t>TZRU63-0130</t>
+        </is>
+      </c>
+      <c r="F741" t="inlineStr">
+        <is>
+          <t>PO1033</t>
+        </is>
+      </c>
+      <c r="G741" t="inlineStr">
+        <is>
+          <t>1.5T</t>
+        </is>
+      </c>
+      <c r="H741" t="inlineStr">
+        <is>
+          <t>6M</t>
+        </is>
+      </c>
+      <c r="I741" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J741" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K741" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>ZR11</t>
+        </is>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="C742" t="n">
+        <v>3000005470</v>
+      </c>
+      <c r="D742" t="inlineStr">
+        <is>
+          <t>TZRU63-0001</t>
+        </is>
+      </c>
+      <c r="E742" t="inlineStr">
+        <is>
+          <t>TZRU63-0140</t>
+        </is>
+      </c>
+      <c r="F742" t="inlineStr">
+        <is>
+          <t>PO1033</t>
+        </is>
+      </c>
+      <c r="G742" t="inlineStr">
+        <is>
+          <t>1.5T</t>
+        </is>
+      </c>
+      <c r="H742" t="inlineStr">
+        <is>
+          <t>6M</t>
+        </is>
+      </c>
+      <c r="I742" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J742" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K742" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>ZW91</t>
+        </is>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="C743" t="n">
+        <v>3000005470</v>
+      </c>
+      <c r="D743" t="inlineStr">
+        <is>
+          <t>TZRU63-0001</t>
+        </is>
+      </c>
+      <c r="E743" t="inlineStr">
+        <is>
+          <t>TZRU63-0140</t>
+        </is>
+      </c>
+      <c r="F743" t="inlineStr">
+        <is>
+          <t>PO1033</t>
+        </is>
+      </c>
+      <c r="G743" t="inlineStr">
+        <is>
+          <t>1.5T</t>
+        </is>
+      </c>
+      <c r="H743" t="inlineStr">
+        <is>
+          <t>6M</t>
+        </is>
+      </c>
+      <c r="I743" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J743" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K743" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>ZR11</t>
+        </is>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="C744" t="n">
+        <v>3000005470</v>
+      </c>
+      <c r="D744" t="inlineStr">
+        <is>
+          <t>TZRU63-0001</t>
+        </is>
+      </c>
+      <c r="E744" t="inlineStr">
+        <is>
+          <t>TZRU63-0150</t>
+        </is>
+      </c>
+      <c r="F744" t="inlineStr">
+        <is>
+          <t>PO1033</t>
+        </is>
+      </c>
+      <c r="G744" t="inlineStr">
+        <is>
+          <t>1.5T</t>
+        </is>
+      </c>
+      <c r="H744" t="inlineStr">
+        <is>
+          <t>6M</t>
+        </is>
+      </c>
+      <c r="I744" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J744" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K744" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>ZW91</t>
+        </is>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="C745" t="n">
+        <v>3000005470</v>
+      </c>
+      <c r="D745" t="inlineStr">
+        <is>
+          <t>TZRU63-0001</t>
+        </is>
+      </c>
+      <c r="E745" t="inlineStr">
+        <is>
+          <t>TZRU63-0150</t>
+        </is>
+      </c>
+      <c r="F745" t="inlineStr">
+        <is>
+          <t>PO1033</t>
+        </is>
+      </c>
+      <c r="G745" t="inlineStr">
+        <is>
+          <t>1.5T</t>
+        </is>
+      </c>
+      <c r="H745" t="inlineStr">
+        <is>
+          <t>6M</t>
+        </is>
+      </c>
+      <c r="I745" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J745" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K745" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>ZR11</t>
+        </is>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="C746" t="n">
+        <v>3000005470</v>
+      </c>
+      <c r="D746" t="inlineStr">
+        <is>
+          <t>TZRU63-0001</t>
+        </is>
+      </c>
+      <c r="E746" t="inlineStr">
+        <is>
+          <t>TZRU63-0160</t>
+        </is>
+      </c>
+      <c r="F746" t="inlineStr">
+        <is>
+          <t>PO1033</t>
+        </is>
+      </c>
+      <c r="G746" t="inlineStr">
+        <is>
+          <t>1.5T</t>
+        </is>
+      </c>
+      <c r="H746" t="inlineStr">
+        <is>
+          <t>6M</t>
+        </is>
+      </c>
+      <c r="I746" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J746" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K746" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>ZW91</t>
+        </is>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="C747" t="n">
+        <v>3000005470</v>
+      </c>
+      <c r="D747" t="inlineStr">
+        <is>
+          <t>TZRU63-0001</t>
+        </is>
+      </c>
+      <c r="E747" t="inlineStr">
+        <is>
+          <t>TZRU63-0160</t>
+        </is>
+      </c>
+      <c r="F747" t="inlineStr">
+        <is>
+          <t>PO1033</t>
+        </is>
+      </c>
+      <c r="G747" t="inlineStr">
+        <is>
+          <t>1.5T</t>
+        </is>
+      </c>
+      <c r="H747" t="inlineStr">
+        <is>
+          <t>6M</t>
+        </is>
+      </c>
+      <c r="I747" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J747" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K747" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>ZR11</t>
+        </is>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="C748" t="n">
+        <v>3000005470</v>
+      </c>
+      <c r="D748" t="inlineStr">
+        <is>
+          <t>TZRU63-0001</t>
+        </is>
+      </c>
+      <c r="E748" t="inlineStr">
+        <is>
+          <t>TZRU63-0170</t>
+        </is>
+      </c>
+      <c r="F748" t="inlineStr">
+        <is>
+          <t>PO1033</t>
+        </is>
+      </c>
+      <c r="G748" t="inlineStr">
+        <is>
+          <t>1.5T</t>
+        </is>
+      </c>
+      <c r="H748" t="inlineStr">
+        <is>
+          <t>6M</t>
+        </is>
+      </c>
+      <c r="I748" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J748" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K748" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>ZW91</t>
+        </is>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="C749" t="n">
+        <v>3000005470</v>
+      </c>
+      <c r="D749" t="inlineStr">
+        <is>
+          <t>TZRU63-0001</t>
+        </is>
+      </c>
+      <c r="E749" t="inlineStr">
+        <is>
+          <t>TZRU63-0170</t>
+        </is>
+      </c>
+      <c r="F749" t="inlineStr">
+        <is>
+          <t>PO1033</t>
+        </is>
+      </c>
+      <c r="G749" t="inlineStr">
+        <is>
+          <t>1.5T</t>
+        </is>
+      </c>
+      <c r="H749" t="inlineStr">
+        <is>
+          <t>6M</t>
+        </is>
+      </c>
+      <c r="I749" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J749" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K749" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>ZR11</t>
+        </is>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="C750" t="n">
+        <v>3000005470</v>
+      </c>
+      <c r="D750" t="inlineStr">
+        <is>
+          <t>TZRU63-0001</t>
+        </is>
+      </c>
+      <c r="E750" t="inlineStr">
+        <is>
+          <t>TZRU63-0180</t>
+        </is>
+      </c>
+      <c r="F750" t="inlineStr">
+        <is>
+          <t>PO1033</t>
+        </is>
+      </c>
+      <c r="G750" t="inlineStr">
+        <is>
+          <t>1.5T</t>
+        </is>
+      </c>
+      <c r="H750" t="inlineStr">
+        <is>
+          <t>6M</t>
+        </is>
+      </c>
+      <c r="I750" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J750" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K750" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>ZW91</t>
+        </is>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="C751" t="n">
+        <v>3000005470</v>
+      </c>
+      <c r="D751" t="inlineStr">
+        <is>
+          <t>TZRU63-0001</t>
+        </is>
+      </c>
+      <c r="E751" t="inlineStr">
+        <is>
+          <t>TZRU63-0180</t>
+        </is>
+      </c>
+      <c r="F751" t="inlineStr">
+        <is>
+          <t>PO1033</t>
+        </is>
+      </c>
+      <c r="G751" t="inlineStr">
+        <is>
+          <t>1.5T</t>
+        </is>
+      </c>
+      <c r="H751" t="inlineStr">
+        <is>
+          <t>6M</t>
+        </is>
+      </c>
+      <c r="I751" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J751" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K751" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>ZR11</t>
+        </is>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="C752" t="n">
+        <v>3000005470</v>
+      </c>
+      <c r="D752" t="inlineStr">
+        <is>
+          <t>TZRU63-0001</t>
+        </is>
+      </c>
+      <c r="E752" t="inlineStr">
+        <is>
+          <t>TZRU63-0190</t>
+        </is>
+      </c>
+      <c r="F752" t="inlineStr">
+        <is>
+          <t>PO1033</t>
+        </is>
+      </c>
+      <c r="G752" t="inlineStr">
+        <is>
+          <t>1.5T</t>
+        </is>
+      </c>
+      <c r="H752" t="inlineStr">
+        <is>
+          <t>6M</t>
+        </is>
+      </c>
+      <c r="I752" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J752" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K752" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>ZW91</t>
+        </is>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="C753" t="n">
+        <v>3000005470</v>
+      </c>
+      <c r="D753" t="inlineStr">
+        <is>
+          <t>TZRU63-0001</t>
+        </is>
+      </c>
+      <c r="E753" t="inlineStr">
+        <is>
+          <t>TZRU63-0190</t>
+        </is>
+      </c>
+      <c r="F753" t="inlineStr">
+        <is>
+          <t>PO1033</t>
+        </is>
+      </c>
+      <c r="G753" t="inlineStr">
+        <is>
+          <t>1.5T</t>
+        </is>
+      </c>
+      <c r="H753" t="inlineStr">
+        <is>
+          <t>6M</t>
+        </is>
+      </c>
+      <c r="I753" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J753" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K753" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>ZR11</t>
+        </is>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="C754" t="n">
+        <v>3000005470</v>
+      </c>
+      <c r="D754" t="inlineStr">
+        <is>
+          <t>TZRU63-0001</t>
+        </is>
+      </c>
+      <c r="E754" t="inlineStr">
+        <is>
+          <t>TZRU63-0200</t>
+        </is>
+      </c>
+      <c r="F754" t="inlineStr">
+        <is>
+          <t>PO1033</t>
+        </is>
+      </c>
+      <c r="G754" t="inlineStr">
+        <is>
+          <t>1.5T</t>
+        </is>
+      </c>
+      <c r="H754" t="inlineStr">
+        <is>
+          <t>6M</t>
+        </is>
+      </c>
+      <c r="I754" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J754" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K754" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>ZW91</t>
+        </is>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="C755" t="n">
+        <v>3000005470</v>
+      </c>
+      <c r="D755" t="inlineStr">
+        <is>
+          <t>TZRU63-0001</t>
+        </is>
+      </c>
+      <c r="E755" t="inlineStr">
+        <is>
+          <t>TZRU63-0200</t>
+        </is>
+      </c>
+      <c r="F755" t="inlineStr">
+        <is>
+          <t>PO1033</t>
+        </is>
+      </c>
+      <c r="G755" t="inlineStr">
+        <is>
+          <t>1.5T</t>
+        </is>
+      </c>
+      <c r="H755" t="inlineStr">
+        <is>
+          <t>6M</t>
+        </is>
+      </c>
+      <c r="I755" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J755" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K755" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>ZR11</t>
+        </is>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="C756" t="n">
+        <v>3000005470</v>
+      </c>
+      <c r="D756" t="inlineStr">
+        <is>
+          <t>TZRU63-0001</t>
+        </is>
+      </c>
+      <c r="E756" t="inlineStr">
         <is>
           <t>TZRU63-0210</t>
         </is>
       </c>
-      <c r="F709" t="inlineStr">
+      <c r="F756" t="inlineStr">
         <is>
           <t>PO1033</t>
         </is>
       </c>
-      <c r="G709" t="inlineStr">
-        <is>
-          <t>3.5T</t>
-        </is>
-      </c>
-      <c r="H709" t="inlineStr">
-        <is>
-          <t>6.0M</t>
-        </is>
-      </c>
-      <c r="I709" t="inlineStr">
+      <c r="G756" t="inlineStr">
+        <is>
+          <t>1.5T</t>
+        </is>
+      </c>
+      <c r="H756" t="inlineStr">
+        <is>
+          <t>6M</t>
+        </is>
+      </c>
+      <c r="I756" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="J709" t="inlineStr">
+      <c r="J756" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="K709" t="n">
+      <c r="K756" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>ZW91</t>
+        </is>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="C757" t="n">
+        <v>3000005470</v>
+      </c>
+      <c r="D757" t="inlineStr">
+        <is>
+          <t>TZRU63-0001</t>
+        </is>
+      </c>
+      <c r="E757" t="inlineStr">
+        <is>
+          <t>TZRU63-0210</t>
+        </is>
+      </c>
+      <c r="F757" t="inlineStr">
+        <is>
+          <t>PO1033</t>
+        </is>
+      </c>
+      <c r="G757" t="inlineStr">
+        <is>
+          <t>1.5T</t>
+        </is>
+      </c>
+      <c r="H757" t="inlineStr">
+        <is>
+          <t>6M</t>
+        </is>
+      </c>
+      <c r="I757" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="J757" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="K757" t="n">
         <v>10</v>
       </c>
     </row>
